--- a/test/HQ.xlsx
+++ b/test/HQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="0" windowWidth="42540" windowHeight="25280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9721" uniqueCount="2915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9767" uniqueCount="2929">
   <si>
     <t>type</t>
   </si>
@@ -9175,12 +9175,54 @@
 test
 testing choice filter alignment</t>
   </si>
+  <si>
+    <t>ppp_inclusion_level</t>
+  </si>
+  <si>
+    <t>ppp_input::English</t>
+  </si>
+  <si>
+    <t>ppp_input::Ateso</t>
+  </si>
+  <si>
+    <t>ppp_input::Luganda</t>
+  </si>
+  <si>
+    <t>ppp_input::Lugbara</t>
+  </si>
+  <si>
+    <t>ppp_input::Luo</t>
+  </si>
+  <si>
+    <t>ppp_input::Lusoga</t>
+  </si>
+  <si>
+    <t>ppp_input::Ngakarimojong</t>
+  </si>
+  <si>
+    <t>ppp_input::Runyankole-Rukiga</t>
+  </si>
+  <si>
+    <t>ppp_input::Runyoro-Rutoro</t>
+  </si>
+  <si>
+    <t>A list of regions.</t>
+  </si>
+  <si>
+    <t>A list of districts.</t>
+  </si>
+  <si>
+    <t>A list of sub-counties.</t>
+  </si>
+  <si>
+    <t>A list of EAs.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9229,6 +9271,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -9289,7 +9350,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9315,8 +9376,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9393,8 +9462,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -9407,6 +9497,10 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -9419,6 +9513,10 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9719,13 +9817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN244"/>
+  <dimension ref="A1:AY334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -9757,10 +9855,13 @@
     <col min="38" max="38" width="16.33203125" style="7" customWidth="1"/>
     <col min="39" max="39" width="18.1640625" style="7" customWidth="1"/>
     <col min="40" max="40" width="17.1640625" style="7" customWidth="1"/>
-    <col min="41" max="16384" width="8.83203125" style="7"/>
+    <col min="41" max="41" width="3.6640625" style="7" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="7" customWidth="1"/>
+    <col min="43" max="43" width="15.33203125" style="7" customWidth="1"/>
+    <col min="44" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="13" customHeight="1">
+    <row r="1" spans="1:51" ht="13" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9881,8 +9982,39 @@
       <c r="AN1" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" ht="13" customHeight="1">
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32" t="s">
+        <v>2915</v>
+      </c>
+      <c r="AQ1" s="32" t="s">
+        <v>2916</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>2917</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>2919</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>2920</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>2921</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>2922</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>2923</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="13" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -9892,8 +10024,11 @@
       <c r="L2" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="13" customHeight="1">
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+    </row>
+    <row r="3" spans="1:51" ht="13" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
@@ -9933,8 +10068,11 @@
       <c r="X3" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" ht="13" customHeight="1">
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+    </row>
+    <row r="4" spans="1:51" ht="13" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -10001,8 +10139,11 @@
       <c r="AF4" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="13" customHeight="1">
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+    </row>
+    <row r="5" spans="1:51" ht="13" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
@@ -10017,8 +10158,11 @@
       <c r="J5" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="13" customHeight="1">
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+    </row>
+    <row r="6" spans="1:51" ht="13" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>57</v>
       </c>
@@ -10058,8 +10202,11 @@
       <c r="X6" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" ht="13" customHeight="1">
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+    </row>
+    <row r="7" spans="1:51" ht="13" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
@@ -10096,16 +10243,22 @@
       <c r="X7" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="13" customHeight="1">
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+    </row>
+    <row r="8" spans="1:51" ht="13" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" ht="13" customHeight="1">
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+    </row>
+    <row r="9" spans="1:51" ht="13" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -10184,8 +10337,11 @@
       <c r="AN9" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" ht="13" customHeight="1">
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+    </row>
+    <row r="10" spans="1:51" ht="13" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -10195,8 +10351,11 @@
       <c r="L10" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" ht="13" customHeight="1">
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+    </row>
+    <row r="11" spans="1:51" ht="13" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -10206,8 +10365,11 @@
       <c r="I11" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" ht="13" customHeight="1">
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+    </row>
+    <row r="12" spans="1:51" ht="13" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>2443</v>
       </c>
@@ -10247,8 +10409,37 @@
       <c r="X12" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" ht="13" customHeight="1">
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AR12" s="38" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AS12" s="38" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AT12" s="38" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AU12" s="38" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AV12" s="38" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AW12" s="38" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AX12" s="38" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AY12" s="38" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" ht="13" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -10288,8 +10479,37 @@
       <c r="X13" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" ht="13" customHeight="1">
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AR13" s="38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AS13" s="38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AT13" s="38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AU13" s="38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AV13" s="38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AW13" s="38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AX13" s="38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AY13" s="38" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="13" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>80</v>
       </c>
@@ -10329,8 +10549,37 @@
       <c r="X14" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" ht="13" customHeight="1">
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AR14" s="38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AS14" s="38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AT14" s="38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AU14" s="38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AV14" s="38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AW14" s="38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AX14" s="38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AY14" s="38" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" ht="13" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>84</v>
       </c>
@@ -10370,8 +10619,37 @@
       <c r="X15" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" ht="13" customHeight="1">
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AR15" s="38" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AS15" s="38" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AT15" s="38" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AU15" s="38" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AV15" s="38" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AW15" s="38" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AX15" s="38" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AY15" s="38" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" ht="13" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>88</v>
       </c>
@@ -10465,8 +10743,11 @@
       <c r="AN16" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="13" customHeight="1">
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+    </row>
+    <row r="17" spans="1:43" ht="13" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>88</v>
       </c>
@@ -10560,8 +10841,11 @@
       <c r="AN17" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" ht="13" customHeight="1">
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+    </row>
+    <row r="18" spans="1:43" ht="13" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -10625,8 +10909,11 @@
       <c r="AF18" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" ht="13" customHeight="1">
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+    </row>
+    <row r="19" spans="1:43" ht="13" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
@@ -10666,8 +10953,11 @@
       <c r="X19" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" ht="13" customHeight="1">
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+    </row>
+    <row r="20" spans="1:43" ht="13" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -10734,8 +11024,11 @@
       <c r="AF20" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" ht="13" customHeight="1">
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+    </row>
+    <row r="21" spans="1:43" ht="13" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
@@ -10802,8 +11095,11 @@
       <c r="AF21" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" ht="13" customHeight="1">
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+    </row>
+    <row r="22" spans="1:43" ht="13" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
@@ -10840,8 +11136,11 @@
       <c r="X22" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" ht="13" customHeight="1">
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+    </row>
+    <row r="23" spans="1:43" ht="13" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>115</v>
       </c>
@@ -10881,8 +11180,11 @@
       <c r="X23" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" ht="13" customHeight="1">
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+    </row>
+    <row r="24" spans="1:43" ht="13" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
@@ -10949,8 +11251,11 @@
       <c r="AF24" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" ht="13" customHeight="1">
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+    </row>
+    <row r="25" spans="1:43" ht="13" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>101</v>
       </c>
@@ -10990,8 +11295,11 @@
       <c r="X25" s="13" t="s">
         <v>2468</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" ht="13" customHeight="1">
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+    </row>
+    <row r="26" spans="1:43" ht="13" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -11031,8 +11339,11 @@
       <c r="X26" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" s="8" customFormat="1" ht="13" customHeight="1">
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+    </row>
+    <row r="27" spans="1:43" s="8" customFormat="1" ht="13" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
@@ -11058,8 +11369,11 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-    </row>
-    <row r="28" spans="1:40" ht="13" customHeight="1">
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+    </row>
+    <row r="28" spans="1:43" ht="13" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>128</v>
       </c>
@@ -11126,8 +11440,11 @@
       <c r="AF28" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" ht="13" customHeight="1">
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+    </row>
+    <row r="29" spans="1:43" ht="13" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>48</v>
       </c>
@@ -11197,8 +11514,11 @@
       <c r="AN29" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" ht="13" customHeight="1">
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+    </row>
+    <row r="30" spans="1:43" ht="13" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -11265,8 +11585,11 @@
       <c r="AF30" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" ht="13" customHeight="1">
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+    </row>
+    <row r="31" spans="1:43" ht="13" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
@@ -11276,8 +11599,11 @@
       <c r="L31" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" s="25" customFormat="1" ht="13" customHeight="1">
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="32"/>
+      <c r="AQ31" s="32"/>
+    </row>
+    <row r="32" spans="1:43" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A32" s="25" t="s">
         <v>101</v>
       </c>
@@ -11344,8 +11670,11 @@
       <c r="AF32" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" s="27" customFormat="1" ht="13" customHeight="1">
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+    </row>
+    <row r="33" spans="1:43" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A33" s="27" t="s">
         <v>149</v>
       </c>
@@ -11382,8 +11711,11 @@
       <c r="X33" s="27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" ht="13" customHeight="1">
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="32"/>
+      <c r="AQ33" s="32"/>
+    </row>
+    <row r="34" spans="1:43" ht="13" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
@@ -11450,8 +11782,11 @@
       <c r="AF34" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" ht="13" customHeight="1">
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+    </row>
+    <row r="35" spans="1:43" ht="13" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -11461,8 +11796,11 @@
       <c r="L35" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" ht="13" customHeight="1">
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="33"/>
+      <c r="AQ35" s="33"/>
+    </row>
+    <row r="36" spans="1:43" ht="13" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -11472,8 +11810,11 @@
       <c r="L36" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" ht="13" customHeight="1">
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+    </row>
+    <row r="37" spans="1:43" ht="13" customHeight="1">
       <c r="A37" s="30" t="s">
         <v>53</v>
       </c>
@@ -11483,8 +11824,11 @@
       <c r="H37" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" ht="13" customHeight="1">
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33"/>
+    </row>
+    <row r="38" spans="1:43" ht="13" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>161</v>
       </c>
@@ -11521,8 +11865,11 @@
       <c r="X38" s="7" t="s">
         <v>2750</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" ht="13" customHeight="1">
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33"/>
+      <c r="AQ38" s="33"/>
+    </row>
+    <row r="39" spans="1:43" ht="13" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -11532,8 +11879,11 @@
       <c r="L39" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" ht="13" customHeight="1">
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
+    </row>
+    <row r="40" spans="1:43" ht="13" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -11543,8 +11893,11 @@
       <c r="L40" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" ht="13" customHeight="1">
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+    </row>
+    <row r="41" spans="1:43" ht="13" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>168</v>
       </c>
@@ -11581,8 +11934,11 @@
       <c r="X41" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" ht="13" customHeight="1">
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
+    </row>
+    <row r="42" spans="1:43" ht="13" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>88</v>
       </c>
@@ -11679,16 +12035,22 @@
       <c r="AN42" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" ht="13" customHeight="1">
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="34"/>
+    </row>
+    <row r="43" spans="1:43" ht="13" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:40" ht="13" customHeight="1">
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="32"/>
+      <c r="AQ43" s="32"/>
+    </row>
+    <row r="44" spans="1:43" ht="13" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>53</v>
       </c>
@@ -11698,8 +12060,11 @@
       <c r="H44" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:40" ht="13" customHeight="1">
+      <c r="AO44" s="32"/>
+      <c r="AP44" s="32"/>
+      <c r="AQ44" s="32"/>
+    </row>
+    <row r="45" spans="1:43" ht="13" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>178</v>
       </c>
@@ -11766,8 +12131,11 @@
       <c r="AF45" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="46" spans="1:40" ht="13" customHeight="1">
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="33"/>
+    </row>
+    <row r="46" spans="1:43" ht="13" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
@@ -11804,8 +12172,11 @@
       <c r="X46" s="7" t="s">
         <v>2757</v>
       </c>
-    </row>
-    <row r="47" spans="1:40" ht="13" customHeight="1">
+      <c r="AO46" s="32"/>
+      <c r="AP46" s="32"/>
+      <c r="AQ46" s="32"/>
+    </row>
+    <row r="47" spans="1:43" ht="13" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>183</v>
       </c>
@@ -11842,16 +12213,22 @@
       <c r="X47" s="7" t="s">
         <v>2759</v>
       </c>
-    </row>
-    <row r="48" spans="1:40" ht="13" customHeight="1">
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="33"/>
+    </row>
+    <row r="48" spans="1:43" ht="13" customHeight="1">
       <c r="A48" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" ht="13" customHeight="1">
+      <c r="AO48" s="33"/>
+      <c r="AP48" s="33"/>
+      <c r="AQ48" s="33"/>
+    </row>
+    <row r="49" spans="1:43" ht="13" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>101</v>
       </c>
@@ -11891,8 +12268,11 @@
       <c r="X49" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="13" customHeight="1">
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="33"/>
+      <c r="AQ49" s="33"/>
+    </row>
+    <row r="50" spans="1:43" ht="13" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>40</v>
       </c>
@@ -11902,8 +12282,11 @@
       <c r="L50" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" ht="13" customHeight="1">
+      <c r="AO50" s="33"/>
+      <c r="AP50" s="33"/>
+      <c r="AQ50" s="33"/>
+    </row>
+    <row r="51" spans="1:43" ht="13" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>101</v>
       </c>
@@ -11940,8 +12323,11 @@
       <c r="X51" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="13" customHeight="1">
+      <c r="AO51" s="33"/>
+      <c r="AP51" s="33"/>
+      <c r="AQ51" s="33"/>
+    </row>
+    <row r="52" spans="1:43" ht="13" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>101</v>
       </c>
@@ -11978,8 +12364,11 @@
       <c r="X52" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="13" customHeight="1">
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="34"/>
+    </row>
+    <row r="53" spans="1:43" ht="13" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>43</v>
       </c>
@@ -12016,8 +12405,11 @@
       <c r="X53" s="7" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="13" customHeight="1">
+      <c r="AO53" s="32"/>
+      <c r="AP53" s="32"/>
+      <c r="AQ53" s="32"/>
+    </row>
+    <row r="54" spans="1:43" ht="13" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>101</v>
       </c>
@@ -12054,8 +12446,11 @@
       <c r="X54" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" ht="13" customHeight="1">
+      <c r="AO54" s="32"/>
+      <c r="AP54" s="32"/>
+      <c r="AQ54" s="32"/>
+    </row>
+    <row r="55" spans="1:43" ht="13" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>101</v>
       </c>
@@ -12092,8 +12487,11 @@
       <c r="X55" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" ht="13" customHeight="1">
+      <c r="AO55" s="32"/>
+      <c r="AP55" s="32"/>
+      <c r="AQ55" s="32"/>
+    </row>
+    <row r="56" spans="1:43" ht="13" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>215</v>
       </c>
@@ -12109,8 +12507,11 @@
       <c r="P56" s="7" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" ht="13" customHeight="1">
+      <c r="AO56" s="35"/>
+      <c r="AP56" s="35"/>
+      <c r="AQ56" s="35"/>
+    </row>
+    <row r="57" spans="1:43" ht="13" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>215</v>
       </c>
@@ -12126,8 +12527,11 @@
       <c r="O57" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" ht="13" customHeight="1">
+      <c r="AO57" s="35"/>
+      <c r="AP57" s="35"/>
+      <c r="AQ57" s="35"/>
+    </row>
+    <row r="58" spans="1:43" ht="13" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>215</v>
       </c>
@@ -12143,8 +12547,11 @@
       <c r="O58" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" ht="13" customHeight="1">
+      <c r="AO58" s="35"/>
+      <c r="AP58" s="35"/>
+      <c r="AQ58" s="35"/>
+    </row>
+    <row r="59" spans="1:43" ht="13" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>215</v>
       </c>
@@ -12160,8 +12567,11 @@
       <c r="O59" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" ht="13" customHeight="1">
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35"/>
+      <c r="AQ59" s="35"/>
+    </row>
+    <row r="60" spans="1:43" ht="13" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>215</v>
       </c>
@@ -12177,8 +12587,11 @@
       <c r="O60" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" ht="13" customHeight="1">
+      <c r="AO60" s="35"/>
+      <c r="AP60" s="35"/>
+      <c r="AQ60" s="35"/>
+    </row>
+    <row r="61" spans="1:43" ht="13" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>215</v>
       </c>
@@ -12194,8 +12607,11 @@
       <c r="O61" s="7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" ht="13" customHeight="1">
+      <c r="AO61" s="35"/>
+      <c r="AP61" s="35"/>
+      <c r="AQ61" s="35"/>
+    </row>
+    <row r="62" spans="1:43" ht="13" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>233</v>
       </c>
@@ -12211,8 +12627,11 @@
       <c r="O62" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" ht="13" customHeight="1">
+      <c r="AO62" s="35"/>
+      <c r="AP62" s="35"/>
+      <c r="AQ62" s="35"/>
+    </row>
+    <row r="63" spans="1:43" ht="13" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>233</v>
       </c>
@@ -12228,8 +12647,11 @@
       <c r="O63" s="7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" ht="13" customHeight="1">
+      <c r="AO63" s="35"/>
+      <c r="AP63" s="35"/>
+      <c r="AQ63" s="35"/>
+    </row>
+    <row r="64" spans="1:43" ht="13" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>215</v>
       </c>
@@ -12245,8 +12667,11 @@
       <c r="O64" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="65" spans="1:40" ht="13" customHeight="1">
+      <c r="AO64" s="35"/>
+      <c r="AP64" s="35"/>
+      <c r="AQ64" s="35"/>
+    </row>
+    <row r="65" spans="1:43" ht="13" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>243</v>
       </c>
@@ -12262,8 +12687,11 @@
       <c r="O65" s="7" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="66" spans="1:40" ht="13" customHeight="1">
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="35"/>
+      <c r="AQ65" s="35"/>
+    </row>
+    <row r="66" spans="1:43" ht="13" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>215</v>
       </c>
@@ -12279,16 +12707,22 @@
       <c r="O66" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="67" spans="1:40" s="26" customFormat="1" ht="13" customHeight="1">
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="35"/>
+      <c r="AQ66" s="35"/>
+    </row>
+    <row r="67" spans="1:43" s="26" customFormat="1" ht="13" customHeight="1">
       <c r="A67" s="26" t="s">
         <v>251</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:40" ht="13" customHeight="1">
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="35"/>
+      <c r="AQ67" s="35"/>
+    </row>
+    <row r="68" spans="1:43" ht="13" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>40</v>
       </c>
@@ -12298,8 +12732,11 @@
       <c r="L68" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="69" spans="1:40" ht="13" customHeight="1">
+      <c r="AO68" s="35"/>
+      <c r="AP68" s="35"/>
+      <c r="AQ68" s="35"/>
+    </row>
+    <row r="69" spans="1:43" ht="13" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>40</v>
       </c>
@@ -12309,8 +12746,11 @@
       <c r="L69" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="70" spans="1:40" ht="13" customHeight="1">
+      <c r="AO69" s="35"/>
+      <c r="AP69" s="35"/>
+      <c r="AQ69" s="35"/>
+    </row>
+    <row r="70" spans="1:43" ht="13" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>40</v>
       </c>
@@ -12320,8 +12760,11 @@
       <c r="L70" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="71" spans="1:40" ht="13" customHeight="1">
+      <c r="AO70" s="35"/>
+      <c r="AP70" s="35"/>
+      <c r="AQ70" s="35"/>
+    </row>
+    <row r="71" spans="1:43" ht="13" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>101</v>
       </c>
@@ -12361,8 +12804,11 @@
       <c r="X71" s="7" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="72" spans="1:40" ht="13" customHeight="1">
+      <c r="AO71" s="35"/>
+      <c r="AP71" s="35"/>
+      <c r="AQ71" s="35"/>
+    </row>
+    <row r="72" spans="1:43" ht="13" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>101</v>
       </c>
@@ -12402,8 +12848,11 @@
       <c r="X72" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="73" spans="1:40" ht="13" customHeight="1">
+      <c r="AO72" s="35"/>
+      <c r="AP72" s="35"/>
+      <c r="AQ72" s="35"/>
+    </row>
+    <row r="73" spans="1:43" ht="13" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>40</v>
       </c>
@@ -12413,8 +12862,11 @@
       <c r="L73" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="74" spans="1:40" ht="13" customHeight="1">
+      <c r="AO73" s="35"/>
+      <c r="AP73" s="35"/>
+      <c r="AQ73" s="35"/>
+    </row>
+    <row r="74" spans="1:43" ht="13" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -12481,8 +12933,11 @@
       <c r="AF74" s="7" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="75" spans="1:40" ht="13" customHeight="1">
+      <c r="AO74" s="35"/>
+      <c r="AP74" s="35"/>
+      <c r="AQ74" s="35"/>
+    </row>
+    <row r="75" spans="1:43" ht="13" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>43</v>
       </c>
@@ -12579,8 +13034,11 @@
       <c r="AN75" s="7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="76" spans="1:40" s="25" customFormat="1" ht="13" customHeight="1">
+      <c r="AO75" s="35"/>
+      <c r="AP75" s="35"/>
+      <c r="AQ75" s="35"/>
+    </row>
+    <row r="76" spans="1:43" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A76" s="25" t="s">
         <v>101</v>
       </c>
@@ -12647,8 +13105,11 @@
       <c r="AF76" s="25" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="77" spans="1:40" ht="13" customHeight="1">
+      <c r="AO76" s="35"/>
+      <c r="AP76" s="35"/>
+      <c r="AQ76" s="35"/>
+    </row>
+    <row r="77" spans="1:43" ht="13" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>53</v>
       </c>
@@ -12661,8 +13122,11 @@
       <c r="J77" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="78" spans="1:40" ht="13" customHeight="1">
+      <c r="AO77" s="35"/>
+      <c r="AP77" s="35"/>
+      <c r="AQ77" s="35"/>
+    </row>
+    <row r="78" spans="1:43" ht="13" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>282</v>
       </c>
@@ -12756,8 +13220,11 @@
       <c r="AN78" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="79" spans="1:40" ht="13" customHeight="1">
+      <c r="AO78" s="35"/>
+      <c r="AP78" s="35"/>
+      <c r="AQ78" s="35"/>
+    </row>
+    <row r="79" spans="1:43" ht="13" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>128</v>
       </c>
@@ -12794,16 +13261,22 @@
       <c r="X79" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="80" spans="1:40" ht="13" customHeight="1">
+      <c r="AO79" s="35"/>
+      <c r="AP79" s="35"/>
+      <c r="AQ79" s="35"/>
+    </row>
+    <row r="80" spans="1:43" ht="13" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="81" spans="1:40" ht="13" customHeight="1">
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="35"/>
+      <c r="AQ80" s="35"/>
+    </row>
+    <row r="81" spans="1:43" ht="13" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>183</v>
       </c>
@@ -12870,8 +13343,11 @@
       <c r="AF81" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="1:40" ht="13" customHeight="1">
+      <c r="AO81" s="35"/>
+      <c r="AP81" s="35"/>
+      <c r="AQ81" s="35"/>
+    </row>
+    <row r="82" spans="1:43" ht="13" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>53</v>
       </c>
@@ -12884,8 +13360,11 @@
       <c r="J82" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="83" spans="1:40" ht="13" customHeight="1">
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="35"/>
+      <c r="AQ82" s="35"/>
+    </row>
+    <row r="83" spans="1:43" ht="13" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>101</v>
       </c>
@@ -12946,8 +13425,11 @@
       <c r="AF83" s="7" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="84" spans="1:40" ht="13" customHeight="1">
+      <c r="AO83" s="35"/>
+      <c r="AP83" s="35"/>
+      <c r="AQ83" s="35"/>
+    </row>
+    <row r="84" spans="1:43" ht="13" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>88</v>
       </c>
@@ -13041,8 +13523,11 @@
       <c r="AN84" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="85" spans="1:40" ht="13" customHeight="1">
+      <c r="AO84" s="35"/>
+      <c r="AP84" s="35"/>
+      <c r="AQ84" s="35"/>
+    </row>
+    <row r="85" spans="1:43" ht="13" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>88</v>
       </c>
@@ -13136,8 +13621,11 @@
       <c r="AN85" s="7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="86" spans="1:40" ht="13" customHeight="1">
+      <c r="AO85" s="35"/>
+      <c r="AP85" s="35"/>
+      <c r="AQ85" s="35"/>
+    </row>
+    <row r="86" spans="1:43" ht="13" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>88</v>
       </c>
@@ -13231,8 +13719,11 @@
       <c r="AN86" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="87" spans="1:40" ht="13" customHeight="1">
+      <c r="AO86" s="35"/>
+      <c r="AP86" s="35"/>
+      <c r="AQ86" s="35"/>
+    </row>
+    <row r="87" spans="1:43" ht="13" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>88</v>
       </c>
@@ -13326,8 +13817,11 @@
       <c r="AN87" s="7" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="88" spans="1:40" ht="13" customHeight="1">
+      <c r="AO87" s="35"/>
+      <c r="AP87" s="35"/>
+      <c r="AQ87" s="35"/>
+    </row>
+    <row r="88" spans="1:43" ht="13" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>88</v>
       </c>
@@ -13421,8 +13915,11 @@
       <c r="AN88" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="89" spans="1:40" ht="13" customHeight="1">
+      <c r="AO88" s="32"/>
+      <c r="AP88" s="32"/>
+      <c r="AQ88" s="32"/>
+    </row>
+    <row r="89" spans="1:43" ht="13" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>88</v>
       </c>
@@ -13516,8 +14013,11 @@
       <c r="AN89" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="90" spans="1:40" ht="13" customHeight="1">
+      <c r="AO89" s="32"/>
+      <c r="AP89" s="32"/>
+      <c r="AQ89" s="32"/>
+    </row>
+    <row r="90" spans="1:43" ht="13" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>88</v>
       </c>
@@ -13611,16 +14111,22 @@
       <c r="AN90" s="7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="91" spans="1:40" ht="13" customHeight="1">
+      <c r="AO90" s="32"/>
+      <c r="AP90" s="32"/>
+      <c r="AQ90" s="32"/>
+    </row>
+    <row r="91" spans="1:43" ht="13" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="92" spans="1:40" ht="13" customHeight="1">
+      <c r="AO91" s="32"/>
+      <c r="AP91" s="32"/>
+      <c r="AQ91" s="32"/>
+    </row>
+    <row r="92" spans="1:43" ht="13" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>183</v>
       </c>
@@ -13687,8 +14193,11 @@
       <c r="AF92" s="7" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="93" spans="1:40" ht="13" customHeight="1">
+      <c r="AO92" s="32"/>
+      <c r="AP92" s="32"/>
+      <c r="AQ92" s="32"/>
+    </row>
+    <row r="93" spans="1:43" ht="13" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>53</v>
       </c>
@@ -13701,8 +14210,11 @@
       <c r="J93" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="94" spans="1:40" ht="13" customHeight="1">
+      <c r="AO93" s="32"/>
+      <c r="AP93" s="32"/>
+      <c r="AQ93" s="32"/>
+    </row>
+    <row r="94" spans="1:43" ht="13" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>101</v>
       </c>
@@ -13763,8 +14275,11 @@
       <c r="AF94" s="7" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="95" spans="1:40" ht="13" customHeight="1">
+      <c r="AO94" s="32"/>
+      <c r="AP94" s="32"/>
+      <c r="AQ94" s="32"/>
+    </row>
+    <row r="95" spans="1:43" ht="13" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>88</v>
       </c>
@@ -13858,8 +14373,11 @@
       <c r="AN95" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="96" spans="1:40" ht="13" customHeight="1">
+      <c r="AO95" s="32"/>
+      <c r="AP95" s="32"/>
+      <c r="AQ95" s="32"/>
+    </row>
+    <row r="96" spans="1:43" ht="13" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>88</v>
       </c>
@@ -13953,8 +14471,11 @@
       <c r="AN96" s="7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="97" spans="1:40" ht="13" customHeight="1">
+      <c r="AO96" s="32"/>
+      <c r="AP96" s="32"/>
+      <c r="AQ96" s="32"/>
+    </row>
+    <row r="97" spans="1:43" ht="13" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>88</v>
       </c>
@@ -14048,8 +14569,11 @@
       <c r="AN97" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="98" spans="1:40" ht="13" customHeight="1">
+      <c r="AO97" s="32"/>
+      <c r="AP97" s="32"/>
+      <c r="AQ97" s="32"/>
+    </row>
+    <row r="98" spans="1:43" ht="13" customHeight="1">
       <c r="A98" s="7" t="s">
         <v>88</v>
       </c>
@@ -14143,8 +14667,11 @@
       <c r="AN98" s="7" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="99" spans="1:40" ht="13" customHeight="1">
+      <c r="AO98" s="32"/>
+      <c r="AP98" s="32"/>
+      <c r="AQ98" s="32"/>
+    </row>
+    <row r="99" spans="1:43" ht="13" customHeight="1">
       <c r="A99" s="7" t="s">
         <v>88</v>
       </c>
@@ -14238,8 +14765,11 @@
       <c r="AN99" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="100" spans="1:40" ht="13" customHeight="1">
+      <c r="AO99" s="32"/>
+      <c r="AP99" s="32"/>
+      <c r="AQ99" s="32"/>
+    </row>
+    <row r="100" spans="1:43" ht="13" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>88</v>
       </c>
@@ -14333,8 +14863,11 @@
       <c r="AN100" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="101" spans="1:40" ht="13" customHeight="1">
+      <c r="AO100" s="32"/>
+      <c r="AP100" s="32"/>
+      <c r="AQ100" s="32"/>
+    </row>
+    <row r="101" spans="1:43" ht="13" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>88</v>
       </c>
@@ -14428,16 +14961,22 @@
       <c r="AN101" s="7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="102" spans="1:40" ht="13" customHeight="1">
+      <c r="AO101" s="33"/>
+      <c r="AP101" s="33"/>
+      <c r="AQ101" s="33"/>
+    </row>
+    <row r="102" spans="1:43" ht="13" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="103" spans="1:40" s="25" customFormat="1" ht="13" customHeight="1">
+      <c r="AO102" s="32"/>
+      <c r="AP102" s="32"/>
+      <c r="AQ102" s="32"/>
+    </row>
+    <row r="103" spans="1:43" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A103" s="25" t="s">
         <v>101</v>
       </c>
@@ -14501,8 +15040,11 @@
       <c r="AF103" s="25" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="104" spans="1:40" ht="13" customHeight="1">
+      <c r="AO103" s="33"/>
+      <c r="AP103" s="33"/>
+      <c r="AQ103" s="33"/>
+    </row>
+    <row r="104" spans="1:43" ht="13" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>436</v>
       </c>
@@ -14569,8 +15111,11 @@
       <c r="AF104" s="7" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="105" spans="1:40" ht="13" customHeight="1">
+      <c r="AO104" s="33"/>
+      <c r="AP104" s="33"/>
+      <c r="AQ104" s="33"/>
+    </row>
+    <row r="105" spans="1:43" ht="13" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>440</v>
       </c>
@@ -14637,8 +15182,11 @@
       <c r="AF105" s="7" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="106" spans="1:40" ht="13" customHeight="1">
+      <c r="AO105" s="33"/>
+      <c r="AP105" s="33"/>
+      <c r="AQ105" s="33"/>
+    </row>
+    <row r="106" spans="1:43" ht="13" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>443</v>
       </c>
@@ -14705,8 +15253,11 @@
       <c r="AF106" s="7" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="107" spans="1:40" s="25" customFormat="1" ht="13" customHeight="1">
+      <c r="AO106" s="33"/>
+      <c r="AP106" s="33"/>
+      <c r="AQ106" s="33"/>
+    </row>
+    <row r="107" spans="1:43" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A107" s="25" t="s">
         <v>101</v>
       </c>
@@ -14770,8 +15321,11 @@
       <c r="AF107" s="25" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="108" spans="1:40" ht="13" customHeight="1">
+      <c r="AO107" s="33"/>
+      <c r="AP107" s="33"/>
+      <c r="AQ107" s="33"/>
+    </row>
+    <row r="108" spans="1:43" ht="13" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>115</v>
       </c>
@@ -14811,8 +15365,11 @@
       <c r="X108" s="7" t="s">
         <v>2761</v>
       </c>
-    </row>
-    <row r="109" spans="1:40" ht="13" customHeight="1">
+      <c r="AO108" s="33"/>
+      <c r="AP108" s="33"/>
+      <c r="AQ108" s="33"/>
+    </row>
+    <row r="109" spans="1:43" ht="13" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>43</v>
       </c>
@@ -14852,8 +15409,11 @@
       <c r="X109" s="7" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="110" spans="1:40" ht="13" customHeight="1">
+      <c r="AO109" s="2"/>
+      <c r="AP109" s="2"/>
+      <c r="AQ109" s="34"/>
+    </row>
+    <row r="110" spans="1:43" ht="13" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>464</v>
       </c>
@@ -14950,8 +15510,11 @@
       <c r="AN110" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="111" spans="1:40" ht="13" customHeight="1">
+      <c r="AO110" s="33"/>
+      <c r="AP110" s="33"/>
+      <c r="AQ110" s="33"/>
+    </row>
+    <row r="111" spans="1:43" ht="13" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>53</v>
       </c>
@@ -14964,8 +15527,11 @@
       <c r="J111" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="112" spans="1:40" ht="13" customHeight="1">
+      <c r="AO111" s="33"/>
+      <c r="AP111" s="33"/>
+      <c r="AQ111" s="33"/>
+    </row>
+    <row r="112" spans="1:43" ht="13" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>472</v>
       </c>
@@ -15059,8 +15625,11 @@
       <c r="AN112" s="7" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="113" spans="1:40" ht="13" customHeight="1">
+      <c r="AO112" s="32"/>
+      <c r="AP112" s="32"/>
+      <c r="AQ112" s="32"/>
+    </row>
+    <row r="113" spans="1:43" ht="13" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>128</v>
       </c>
@@ -15097,16 +15666,22 @@
       <c r="X113" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="114" spans="1:40" ht="13" customHeight="1">
+      <c r="AO113" s="32"/>
+      <c r="AP113" s="32"/>
+      <c r="AQ113" s="32"/>
+    </row>
+    <row r="114" spans="1:43" ht="13" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="115" spans="1:40" ht="13" customHeight="1">
+      <c r="AO114" s="32"/>
+      <c r="AP114" s="32"/>
+      <c r="AQ114" s="32"/>
+    </row>
+    <row r="115" spans="1:43" ht="13" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>40</v>
       </c>
@@ -15116,8 +15691,11 @@
       <c r="L115" s="7" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="116" spans="1:40" ht="13" customHeight="1">
+      <c r="AO115" s="32"/>
+      <c r="AP115" s="32"/>
+      <c r="AQ115" s="32"/>
+    </row>
+    <row r="116" spans="1:43" ht="13" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>489</v>
       </c>
@@ -15214,8 +15792,11 @@
       <c r="AN116" s="7" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="117" spans="1:40" ht="13" customHeight="1">
+      <c r="AO116" s="32"/>
+      <c r="AP116" s="32"/>
+      <c r="AQ116" s="32"/>
+    </row>
+    <row r="117" spans="1:43" ht="13" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>489</v>
       </c>
@@ -15312,8 +15893,11 @@
       <c r="AN117" s="7" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="118" spans="1:40" ht="13" customHeight="1">
+      <c r="AO117" s="32"/>
+      <c r="AP117" s="32"/>
+      <c r="AQ117" s="32"/>
+    </row>
+    <row r="118" spans="1:43" ht="13" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>40</v>
       </c>
@@ -15323,8 +15907,11 @@
       <c r="L118" s="7" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="119" spans="1:40" ht="13" customHeight="1">
+      <c r="AO118" s="32"/>
+      <c r="AP118" s="32"/>
+      <c r="AQ118" s="32"/>
+    </row>
+    <row r="119" spans="1:43" ht="13" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>101</v>
       </c>
@@ -15361,8 +15948,11 @@
       <c r="X119" s="7" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="120" spans="1:40" ht="13" customHeight="1">
+      <c r="AO119" s="32"/>
+      <c r="AP119" s="32"/>
+      <c r="AQ119" s="32"/>
+    </row>
+    <row r="120" spans="1:43" ht="13" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>504</v>
       </c>
@@ -15432,8 +16022,11 @@
       <c r="AN120" s="7" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="121" spans="1:40" ht="13" customHeight="1">
+      <c r="AO120" s="32"/>
+      <c r="AP120" s="32"/>
+      <c r="AQ120" s="32"/>
+    </row>
+    <row r="121" spans="1:43" ht="13" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>88</v>
       </c>
@@ -15503,8 +16096,11 @@
       <c r="AF121" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="122" spans="1:40" ht="13" customHeight="1">
+      <c r="AO121" s="32"/>
+      <c r="AP121" s="32"/>
+      <c r="AQ121" s="32"/>
+    </row>
+    <row r="122" spans="1:43" ht="13" customHeight="1">
       <c r="A122" s="7" t="s">
         <v>513</v>
       </c>
@@ -15544,8 +16140,11 @@
       <c r="X122" s="7" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="123" spans="1:40" ht="13" customHeight="1">
+      <c r="AO122" s="32"/>
+      <c r="AP122" s="32"/>
+      <c r="AQ122" s="32"/>
+    </row>
+    <row r="123" spans="1:43" ht="13" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>504</v>
       </c>
@@ -15615,8 +16214,11 @@
       <c r="AN123" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="124" spans="1:40" ht="13" customHeight="1">
+      <c r="AO123" s="32"/>
+      <c r="AP123" s="32"/>
+      <c r="AQ123" s="32"/>
+    </row>
+    <row r="124" spans="1:43" ht="13" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>88</v>
       </c>
@@ -15686,8 +16288,11 @@
       <c r="AF124" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="125" spans="1:40" ht="13" customHeight="1">
+      <c r="AO124" s="32"/>
+      <c r="AP124" s="32"/>
+      <c r="AQ124" s="32"/>
+    </row>
+    <row r="125" spans="1:43" ht="13" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>513</v>
       </c>
@@ -15727,8 +16332,11 @@
       <c r="X125" s="7" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="126" spans="1:40" ht="13" customHeight="1">
+      <c r="AO125" s="32"/>
+      <c r="AP125" s="32"/>
+      <c r="AQ125" s="32"/>
+    </row>
+    <row r="126" spans="1:43" ht="13" customHeight="1">
       <c r="A126" s="7" t="s">
         <v>88</v>
       </c>
@@ -15825,8 +16433,11 @@
       <c r="AN126" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="127" spans="1:40" ht="13" customHeight="1">
+      <c r="AO126" s="32"/>
+      <c r="AP126" s="32"/>
+      <c r="AQ126" s="32"/>
+    </row>
+    <row r="127" spans="1:43" ht="13" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>504</v>
       </c>
@@ -15896,8 +16507,11 @@
       <c r="AN127" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="128" spans="1:40" ht="13" customHeight="1">
+      <c r="AO127" s="32"/>
+      <c r="AP127" s="32"/>
+      <c r="AQ127" s="32"/>
+    </row>
+    <row r="128" spans="1:43" ht="13" customHeight="1">
       <c r="A128" s="7" t="s">
         <v>88</v>
       </c>
@@ -15967,8 +16581,11 @@
       <c r="AF128" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="129" spans="1:40" ht="13" customHeight="1">
+      <c r="AO128" s="32"/>
+      <c r="AP128" s="32"/>
+      <c r="AQ128" s="32"/>
+    </row>
+    <row r="129" spans="1:43" ht="13" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>513</v>
       </c>
@@ -16008,8 +16625,11 @@
       <c r="X129" s="7" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="130" spans="1:40" ht="13" customHeight="1">
+      <c r="AO129" s="32"/>
+      <c r="AP129" s="32"/>
+      <c r="AQ129" s="32"/>
+    </row>
+    <row r="130" spans="1:43" ht="13" customHeight="1">
       <c r="A130" s="7" t="s">
         <v>88</v>
       </c>
@@ -16106,8 +16726,11 @@
       <c r="AN130" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="131" spans="1:40" ht="13" customHeight="1">
+      <c r="AO130" s="32"/>
+      <c r="AP130" s="32"/>
+      <c r="AQ130" s="32"/>
+    </row>
+    <row r="131" spans="1:43" ht="13" customHeight="1">
       <c r="A131" s="7" t="s">
         <v>504</v>
       </c>
@@ -16177,8 +16800,11 @@
       <c r="AN131" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="132" spans="1:40" ht="13" customHeight="1">
+      <c r="AO131" s="32"/>
+      <c r="AP131" s="32"/>
+      <c r="AQ131" s="32"/>
+    </row>
+    <row r="132" spans="1:43" ht="13" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>88</v>
       </c>
@@ -16248,8 +16874,11 @@
       <c r="AF132" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="133" spans="1:40" ht="13" customHeight="1">
+      <c r="AO132" s="32"/>
+      <c r="AP132" s="32"/>
+      <c r="AQ132" s="32"/>
+    </row>
+    <row r="133" spans="1:43" ht="13" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>513</v>
       </c>
@@ -16289,8 +16918,11 @@
       <c r="X133" s="7" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="134" spans="1:40" ht="13" customHeight="1">
+      <c r="AO133" s="32"/>
+      <c r="AP133" s="32"/>
+      <c r="AQ133" s="32"/>
+    </row>
+    <row r="134" spans="1:43" ht="13" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>88</v>
       </c>
@@ -16387,8 +17019,11 @@
       <c r="AN134" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="135" spans="1:40" ht="13" customHeight="1">
+      <c r="AO134" s="32"/>
+      <c r="AP134" s="32"/>
+      <c r="AQ134" s="32"/>
+    </row>
+    <row r="135" spans="1:43" ht="13" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>504</v>
       </c>
@@ -16458,8 +17093,11 @@
       <c r="AN135" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="136" spans="1:40" ht="13" customHeight="1">
+      <c r="AO135" s="32"/>
+      <c r="AP135" s="32"/>
+      <c r="AQ135" s="32"/>
+    </row>
+    <row r="136" spans="1:43" ht="13" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>88</v>
       </c>
@@ -16529,8 +17167,11 @@
       <c r="AF136" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="137" spans="1:40" ht="13" customHeight="1">
+      <c r="AO136" s="32"/>
+      <c r="AP136" s="32"/>
+      <c r="AQ136" s="32"/>
+    </row>
+    <row r="137" spans="1:43" ht="13" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>513</v>
       </c>
@@ -16570,8 +17211,11 @@
       <c r="X137" s="7" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="138" spans="1:40" ht="13" customHeight="1">
+      <c r="AO137" s="32"/>
+      <c r="AP137" s="32"/>
+      <c r="AQ137" s="32"/>
+    </row>
+    <row r="138" spans="1:43" ht="13" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>88</v>
       </c>
@@ -16668,8 +17312,11 @@
       <c r="AN138" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="139" spans="1:40" ht="13" customHeight="1">
+      <c r="AO138" s="32"/>
+      <c r="AP138" s="32"/>
+      <c r="AQ138" s="32"/>
+    </row>
+    <row r="139" spans="1:43" ht="13" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>504</v>
       </c>
@@ -16739,8 +17386,11 @@
       <c r="AN139" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="140" spans="1:40" ht="13" customHeight="1">
+      <c r="AO139" s="32"/>
+      <c r="AP139" s="32"/>
+      <c r="AQ139" s="32"/>
+    </row>
+    <row r="140" spans="1:43" ht="13" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>88</v>
       </c>
@@ -16810,8 +17460,11 @@
       <c r="AF140" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="141" spans="1:40" ht="13" customHeight="1">
+      <c r="AO140" s="32"/>
+      <c r="AP140" s="32"/>
+      <c r="AQ140" s="32"/>
+    </row>
+    <row r="141" spans="1:43" ht="13" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>513</v>
       </c>
@@ -16851,8 +17504,11 @@
       <c r="X141" s="7" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="142" spans="1:40" ht="13" customHeight="1">
+      <c r="AO141" s="32"/>
+      <c r="AP141" s="32"/>
+      <c r="AQ141" s="32"/>
+    </row>
+    <row r="142" spans="1:43" ht="13" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>88</v>
       </c>
@@ -16949,8 +17605,11 @@
       <c r="AN142" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="143" spans="1:40" ht="13" customHeight="1">
+      <c r="AO142" s="32"/>
+      <c r="AP142" s="32"/>
+      <c r="AQ142" s="32"/>
+    </row>
+    <row r="143" spans="1:43" ht="13" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>504</v>
       </c>
@@ -17020,8 +17679,11 @@
       <c r="AN143" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="144" spans="1:40" ht="13" customHeight="1">
+      <c r="AO143" s="32"/>
+      <c r="AP143" s="32"/>
+      <c r="AQ143" s="32"/>
+    </row>
+    <row r="144" spans="1:43" ht="13" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>88</v>
       </c>
@@ -17091,8 +17753,11 @@
       <c r="AF144" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="145" spans="1:40" ht="13" customHeight="1">
+      <c r="AO144" s="32"/>
+      <c r="AP144" s="32"/>
+      <c r="AQ144" s="32"/>
+    </row>
+    <row r="145" spans="1:43" ht="13" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>513</v>
       </c>
@@ -17132,8 +17797,11 @@
       <c r="X145" s="7" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="146" spans="1:40" ht="13" customHeight="1">
+      <c r="AO145" s="32"/>
+      <c r="AP145" s="32"/>
+      <c r="AQ145" s="32"/>
+    </row>
+    <row r="146" spans="1:43" ht="13" customHeight="1">
       <c r="A146" s="7" t="s">
         <v>88</v>
       </c>
@@ -17230,8 +17898,11 @@
       <c r="AN146" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="147" spans="1:40" ht="13" customHeight="1">
+      <c r="AO146" s="32"/>
+      <c r="AP146" s="32"/>
+      <c r="AQ146" s="32"/>
+    </row>
+    <row r="147" spans="1:43" ht="13" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>504</v>
       </c>
@@ -17301,8 +17972,11 @@
       <c r="AN147" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="148" spans="1:40" ht="13" customHeight="1">
+      <c r="AO147" s="32"/>
+      <c r="AP147" s="32"/>
+      <c r="AQ147" s="32"/>
+    </row>
+    <row r="148" spans="1:43" ht="13" customHeight="1">
       <c r="A148" s="7" t="s">
         <v>88</v>
       </c>
@@ -17372,8 +18046,11 @@
       <c r="AF148" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="149" spans="1:40" ht="13" customHeight="1">
+      <c r="AO148" s="32"/>
+      <c r="AP148" s="32"/>
+      <c r="AQ148" s="32"/>
+    </row>
+    <row r="149" spans="1:43" ht="13" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>513</v>
       </c>
@@ -17413,8 +18090,11 @@
       <c r="X149" s="7" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="150" spans="1:40" ht="13" customHeight="1">
+      <c r="AO149" s="32"/>
+      <c r="AP149" s="32"/>
+      <c r="AQ149" s="32"/>
+    </row>
+    <row r="150" spans="1:43" ht="13" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>88</v>
       </c>
@@ -17511,8 +18191,11 @@
       <c r="AN150" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="151" spans="1:40" ht="13" customHeight="1">
+      <c r="AO150" s="32"/>
+      <c r="AP150" s="32"/>
+      <c r="AQ150" s="32"/>
+    </row>
+    <row r="151" spans="1:43" ht="13" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>504</v>
       </c>
@@ -17582,8 +18265,11 @@
       <c r="AN151" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="152" spans="1:40" ht="13" customHeight="1">
+      <c r="AO151" s="32"/>
+      <c r="AP151" s="32"/>
+      <c r="AQ151" s="32"/>
+    </row>
+    <row r="152" spans="1:43" ht="13" customHeight="1">
       <c r="A152" s="7" t="s">
         <v>88</v>
       </c>
@@ -17653,8 +18339,11 @@
       <c r="AF152" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="153" spans="1:40" ht="13" customHeight="1">
+      <c r="AO152" s="32"/>
+      <c r="AP152" s="32"/>
+      <c r="AQ152" s="32"/>
+    </row>
+    <row r="153" spans="1:43" ht="13" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>513</v>
       </c>
@@ -17694,8 +18383,11 @@
       <c r="X153" s="7" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="154" spans="1:40" ht="13" customHeight="1">
+      <c r="AO153" s="32"/>
+      <c r="AP153" s="32"/>
+      <c r="AQ153" s="32"/>
+    </row>
+    <row r="154" spans="1:43" ht="13" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>88</v>
       </c>
@@ -17792,8 +18484,11 @@
       <c r="AN154" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="155" spans="1:40" ht="13" customHeight="1">
+      <c r="AO154" s="32"/>
+      <c r="AP154" s="32"/>
+      <c r="AQ154" s="32"/>
+    </row>
+    <row r="155" spans="1:43" ht="13" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>504</v>
       </c>
@@ -17863,8 +18558,11 @@
       <c r="AN155" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="156" spans="1:40" ht="13" customHeight="1">
+      <c r="AO155" s="32"/>
+      <c r="AP155" s="32"/>
+      <c r="AQ155" s="32"/>
+    </row>
+    <row r="156" spans="1:43" ht="13" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>88</v>
       </c>
@@ -17934,8 +18632,11 @@
       <c r="AF156" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="157" spans="1:40" ht="13" customHeight="1">
+      <c r="AO156" s="32"/>
+      <c r="AP156" s="32"/>
+      <c r="AQ156" s="32"/>
+    </row>
+    <row r="157" spans="1:43" ht="13" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>513</v>
       </c>
@@ -17975,8 +18676,11 @@
       <c r="X157" s="7" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="158" spans="1:40" ht="13" customHeight="1">
+      <c r="AO157" s="32"/>
+      <c r="AP157" s="32"/>
+      <c r="AQ157" s="32"/>
+    </row>
+    <row r="158" spans="1:43" ht="13" customHeight="1">
       <c r="A158" s="7" t="s">
         <v>88</v>
       </c>
@@ -18073,8 +18777,11 @@
       <c r="AN158" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="159" spans="1:40" ht="13" customHeight="1">
+      <c r="AO158" s="32"/>
+      <c r="AP158" s="32"/>
+      <c r="AQ158" s="32"/>
+    </row>
+    <row r="159" spans="1:43" ht="13" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>504</v>
       </c>
@@ -18144,8 +18851,11 @@
       <c r="AN159" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="160" spans="1:40" ht="13" customHeight="1">
+      <c r="AO159" s="32"/>
+      <c r="AP159" s="32"/>
+      <c r="AQ159" s="32"/>
+    </row>
+    <row r="160" spans="1:43" ht="13" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>88</v>
       </c>
@@ -18215,8 +18925,11 @@
       <c r="AF160" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="161" spans="1:40" ht="13" customHeight="1">
+      <c r="AO160" s="32"/>
+      <c r="AP160" s="32"/>
+      <c r="AQ160" s="32"/>
+    </row>
+    <row r="161" spans="1:43" ht="13" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>513</v>
       </c>
@@ -18256,8 +18969,11 @@
       <c r="X161" s="7" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="162" spans="1:40" ht="13" customHeight="1">
+      <c r="AO161" s="32"/>
+      <c r="AP161" s="32"/>
+      <c r="AQ161" s="32"/>
+    </row>
+    <row r="162" spans="1:43" ht="13" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>88</v>
       </c>
@@ -18354,8 +19070,11 @@
       <c r="AN162" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="163" spans="1:40" ht="13" customHeight="1">
+      <c r="AO162" s="32"/>
+      <c r="AP162" s="32"/>
+      <c r="AQ162" s="32"/>
+    </row>
+    <row r="163" spans="1:43" ht="13" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>504</v>
       </c>
@@ -18425,8 +19144,11 @@
       <c r="AN163" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="164" spans="1:40" ht="13" customHeight="1">
+      <c r="AO163" s="32"/>
+      <c r="AP163" s="32"/>
+      <c r="AQ163" s="32"/>
+    </row>
+    <row r="164" spans="1:43" ht="13" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>88</v>
       </c>
@@ -18496,8 +19218,11 @@
       <c r="AF164" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="165" spans="1:40" ht="13" customHeight="1">
+      <c r="AO164" s="32"/>
+      <c r="AP164" s="32"/>
+      <c r="AQ164" s="32"/>
+    </row>
+    <row r="165" spans="1:43" ht="13" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>513</v>
       </c>
@@ -18537,8 +19262,11 @@
       <c r="X165" s="7" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="166" spans="1:40" ht="13" customHeight="1">
+      <c r="AO165" s="32"/>
+      <c r="AP165" s="32"/>
+      <c r="AQ165" s="32"/>
+    </row>
+    <row r="166" spans="1:43" ht="13" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>88</v>
       </c>
@@ -18635,8 +19363,11 @@
       <c r="AN166" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="167" spans="1:40" ht="13" customHeight="1">
+      <c r="AO166" s="32"/>
+      <c r="AP166" s="32"/>
+      <c r="AQ166" s="32"/>
+    </row>
+    <row r="167" spans="1:43" ht="13" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>504</v>
       </c>
@@ -18706,8 +19437,11 @@
       <c r="AN167" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="168" spans="1:40" ht="13" customHeight="1">
+      <c r="AO167" s="32"/>
+      <c r="AP167" s="32"/>
+      <c r="AQ167" s="32"/>
+    </row>
+    <row r="168" spans="1:43" ht="13" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>88</v>
       </c>
@@ -18777,8 +19511,11 @@
       <c r="AF168" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="169" spans="1:40" ht="13" customHeight="1">
+      <c r="AO168" s="32"/>
+      <c r="AP168" s="32"/>
+      <c r="AQ168" s="32"/>
+    </row>
+    <row r="169" spans="1:43" ht="13" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>513</v>
       </c>
@@ -18818,8 +19555,11 @@
       <c r="X169" s="7" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="170" spans="1:40" ht="13" customHeight="1">
+      <c r="AO169" s="32"/>
+      <c r="AP169" s="32"/>
+      <c r="AQ169" s="32"/>
+    </row>
+    <row r="170" spans="1:43" ht="13" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>88</v>
       </c>
@@ -18916,8 +19656,11 @@
       <c r="AN170" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="171" spans="1:40" ht="13" customHeight="1">
+      <c r="AO170" s="32"/>
+      <c r="AP170" s="32"/>
+      <c r="AQ170" s="32"/>
+    </row>
+    <row r="171" spans="1:43" ht="13" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>504</v>
       </c>
@@ -18987,8 +19730,11 @@
       <c r="AN171" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="172" spans="1:40" ht="13" customHeight="1">
+      <c r="AO171" s="32"/>
+      <c r="AP171" s="32"/>
+      <c r="AQ171" s="32"/>
+    </row>
+    <row r="172" spans="1:43" ht="13" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>88</v>
       </c>
@@ -19058,8 +19804,11 @@
       <c r="AF172" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="173" spans="1:40" ht="13" customHeight="1">
+      <c r="AO172" s="32"/>
+      <c r="AP172" s="32"/>
+      <c r="AQ172" s="32"/>
+    </row>
+    <row r="173" spans="1:43" ht="13" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>513</v>
       </c>
@@ -19099,8 +19848,11 @@
       <c r="X173" s="7" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="174" spans="1:40" ht="13" customHeight="1">
+      <c r="AO173" s="32"/>
+      <c r="AP173" s="32"/>
+      <c r="AQ173" s="32"/>
+    </row>
+    <row r="174" spans="1:43" ht="13" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>88</v>
       </c>
@@ -19197,8 +19949,11 @@
       <c r="AN174" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="175" spans="1:40" ht="13" customHeight="1">
+      <c r="AO174" s="32"/>
+      <c r="AP174" s="32"/>
+      <c r="AQ174" s="32"/>
+    </row>
+    <row r="175" spans="1:43" ht="13" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>53</v>
       </c>
@@ -19211,8 +19966,11 @@
       <c r="J175" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="176" spans="1:40" ht="13" customHeight="1">
+      <c r="AO175" s="32"/>
+      <c r="AP175" s="32"/>
+      <c r="AQ175" s="32"/>
+    </row>
+    <row r="176" spans="1:43" ht="13" customHeight="1">
       <c r="A176" s="7" t="s">
         <v>785</v>
       </c>
@@ -19306,8 +20064,11 @@
       <c r="AN176" s="7" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:40" ht="13" customHeight="1">
+      <c r="AO176" s="32"/>
+      <c r="AP176" s="32"/>
+      <c r="AQ176" s="32"/>
+    </row>
+    <row r="177" spans="1:43" ht="13" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>128</v>
       </c>
@@ -19344,16 +20105,22 @@
       <c r="X177" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="178" spans="1:40" ht="13" customHeight="1">
+      <c r="AO177" s="32"/>
+      <c r="AP177" s="32"/>
+      <c r="AQ177" s="32"/>
+    </row>
+    <row r="178" spans="1:43" ht="13" customHeight="1">
       <c r="A178" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="179" spans="1:40" ht="13" customHeight="1">
+      <c r="AO178" s="32"/>
+      <c r="AP178" s="32"/>
+      <c r="AQ178" s="32"/>
+    </row>
+    <row r="179" spans="1:43" ht="13" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>48</v>
       </c>
@@ -19393,8 +20160,11 @@
       <c r="X179" s="7" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="180" spans="1:40" ht="13" customHeight="1">
+      <c r="AO179" s="32"/>
+      <c r="AP179" s="32"/>
+      <c r="AQ179" s="32"/>
+    </row>
+    <row r="180" spans="1:43" ht="13" customHeight="1">
       <c r="A180" s="7" t="s">
         <v>40</v>
       </c>
@@ -19404,8 +20174,11 @@
       <c r="L180" s="7" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="181" spans="1:40" ht="13" customHeight="1">
+      <c r="AO180" s="32"/>
+      <c r="AP180" s="32"/>
+      <c r="AQ180" s="32"/>
+    </row>
+    <row r="181" spans="1:43" ht="13" customHeight="1">
       <c r="A181" s="7" t="s">
         <v>802</v>
       </c>
@@ -19502,8 +20275,11 @@
       <c r="AN181" s="7" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="182" spans="1:40" ht="13" customHeight="1">
+      <c r="AO181" s="32"/>
+      <c r="AP181" s="32"/>
+      <c r="AQ181" s="32"/>
+    </row>
+    <row r="182" spans="1:43" ht="13" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>40</v>
       </c>
@@ -19513,8 +20289,11 @@
       <c r="L182" s="7" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="183" spans="1:40" ht="13" customHeight="1">
+      <c r="AO182" s="32"/>
+      <c r="AP182" s="32"/>
+      <c r="AQ182" s="32"/>
+    </row>
+    <row r="183" spans="1:43" ht="13" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>101</v>
       </c>
@@ -19551,8 +20330,11 @@
       <c r="X183" s="7" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="184" spans="1:40" ht="13" customHeight="1">
+      <c r="AO183" s="32"/>
+      <c r="AP183" s="32"/>
+      <c r="AQ183" s="32"/>
+    </row>
+    <row r="184" spans="1:43" ht="13" customHeight="1">
       <c r="A184" s="7" t="s">
         <v>40</v>
       </c>
@@ -19562,8 +20344,11 @@
       <c r="L184" s="7" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="185" spans="1:40" ht="13" customHeight="1">
+      <c r="AO184" s="32"/>
+      <c r="AP184" s="32"/>
+      <c r="AQ184" s="32"/>
+    </row>
+    <row r="185" spans="1:43" ht="13" customHeight="1">
       <c r="A185" s="7" t="s">
         <v>824</v>
       </c>
@@ -19630,8 +20415,11 @@
       <c r="AF185" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="186" spans="1:40" ht="13" customHeight="1">
+      <c r="AO185" s="32"/>
+      <c r="AP185" s="32"/>
+      <c r="AQ185" s="32"/>
+    </row>
+    <row r="186" spans="1:43" ht="13" customHeight="1">
       <c r="A186" s="7" t="s">
         <v>828</v>
       </c>
@@ -19671,8 +20459,11 @@
       <c r="X186" s="7" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="187" spans="1:40" ht="13" customHeight="1">
+      <c r="AO186" s="32"/>
+      <c r="AP186" s="32"/>
+      <c r="AQ186" s="32"/>
+    </row>
+    <row r="187" spans="1:43" ht="13" customHeight="1">
       <c r="A187" s="7" t="s">
         <v>88</v>
       </c>
@@ -19769,8 +20560,11 @@
       <c r="AN187" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="188" spans="1:40" ht="13" customHeight="1">
+      <c r="AO187" s="32"/>
+      <c r="AP187" s="32"/>
+      <c r="AQ187" s="32"/>
+    </row>
+    <row r="188" spans="1:43" ht="13" customHeight="1">
       <c r="A188" s="7" t="s">
         <v>40</v>
       </c>
@@ -19780,8 +20574,11 @@
       <c r="L188" s="7" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="189" spans="1:40" ht="13" customHeight="1">
+      <c r="AO188" s="32"/>
+      <c r="AP188" s="32"/>
+      <c r="AQ188" s="32"/>
+    </row>
+    <row r="189" spans="1:43" ht="13" customHeight="1">
       <c r="A189" s="7" t="s">
         <v>824</v>
       </c>
@@ -19848,8 +20645,11 @@
       <c r="AF189" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="190" spans="1:40" ht="13" customHeight="1">
+      <c r="AO189" s="32"/>
+      <c r="AP189" s="32"/>
+      <c r="AQ189" s="32"/>
+    </row>
+    <row r="190" spans="1:43" ht="13" customHeight="1">
       <c r="A190" s="7" t="s">
         <v>828</v>
       </c>
@@ -19889,8 +20689,11 @@
       <c r="X190" s="7" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="191" spans="1:40" ht="13" customHeight="1">
+      <c r="AO190" s="32"/>
+      <c r="AP190" s="32"/>
+      <c r="AQ190" s="32"/>
+    </row>
+    <row r="191" spans="1:43" ht="13" customHeight="1">
       <c r="A191" s="7" t="s">
         <v>88</v>
       </c>
@@ -19987,8 +20790,11 @@
       <c r="AN191" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="192" spans="1:40" ht="13" customHeight="1">
+      <c r="AO191" s="32"/>
+      <c r="AP191" s="32"/>
+      <c r="AQ191" s="32"/>
+    </row>
+    <row r="192" spans="1:43" ht="13" customHeight="1">
       <c r="A192" s="7" t="s">
         <v>40</v>
       </c>
@@ -19998,8 +20804,11 @@
       <c r="L192" s="7" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="193" spans="1:40" ht="13" customHeight="1">
+      <c r="AO192" s="32"/>
+      <c r="AP192" s="32"/>
+      <c r="AQ192" s="32"/>
+    </row>
+    <row r="193" spans="1:43" ht="13" customHeight="1">
       <c r="A193" s="7" t="s">
         <v>824</v>
       </c>
@@ -20066,8 +20875,11 @@
       <c r="AF193" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="194" spans="1:40" ht="13" customHeight="1">
+      <c r="AO193" s="32"/>
+      <c r="AP193" s="32"/>
+      <c r="AQ193" s="32"/>
+    </row>
+    <row r="194" spans="1:43" ht="13" customHeight="1">
       <c r="A194" s="7" t="s">
         <v>828</v>
       </c>
@@ -20107,8 +20919,11 @@
       <c r="X194" s="13" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="195" spans="1:40" ht="13" customHeight="1">
+      <c r="AO194" s="32"/>
+      <c r="AP194" s="32"/>
+      <c r="AQ194" s="32"/>
+    </row>
+    <row r="195" spans="1:43" ht="13" customHeight="1">
       <c r="A195" s="7" t="s">
         <v>88</v>
       </c>
@@ -20178,8 +20993,11 @@
       <c r="AF195" s="7" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="196" spans="1:40" ht="13" customHeight="1">
+      <c r="AO195" s="32"/>
+      <c r="AP195" s="32"/>
+      <c r="AQ195" s="32"/>
+    </row>
+    <row r="196" spans="1:43" ht="13" customHeight="1">
       <c r="A196" s="7" t="s">
         <v>40</v>
       </c>
@@ -20189,8 +21007,11 @@
       <c r="L196" s="7" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="197" spans="1:40" ht="13" customHeight="1">
+      <c r="AO196" s="32"/>
+      <c r="AP196" s="32"/>
+      <c r="AQ196" s="32"/>
+    </row>
+    <row r="197" spans="1:43" ht="13" customHeight="1">
       <c r="A197" s="7" t="s">
         <v>824</v>
       </c>
@@ -20257,8 +21078,11 @@
       <c r="AF197" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="198" spans="1:40" ht="13" customHeight="1">
+      <c r="AO197" s="32"/>
+      <c r="AP197" s="32"/>
+      <c r="AQ197" s="32"/>
+    </row>
+    <row r="198" spans="1:43" ht="13" customHeight="1">
       <c r="A198" s="7" t="s">
         <v>828</v>
       </c>
@@ -20298,8 +21122,11 @@
       <c r="X198" s="7" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="199" spans="1:40" ht="13" customHeight="1">
+      <c r="AO198" s="32"/>
+      <c r="AP198" s="32"/>
+      <c r="AQ198" s="32"/>
+    </row>
+    <row r="199" spans="1:43" ht="13" customHeight="1">
       <c r="A199" s="7" t="s">
         <v>88</v>
       </c>
@@ -20396,8 +21223,11 @@
       <c r="AN199" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="200" spans="1:40" ht="13" customHeight="1">
+      <c r="AO199" s="32"/>
+      <c r="AP199" s="32"/>
+      <c r="AQ199" s="32"/>
+    </row>
+    <row r="200" spans="1:43" ht="13" customHeight="1">
       <c r="A200" s="7" t="s">
         <v>40</v>
       </c>
@@ -20407,8 +21237,11 @@
       <c r="L200" s="7" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="201" spans="1:40" ht="13" customHeight="1">
+      <c r="AO200" s="32"/>
+      <c r="AP200" s="32"/>
+      <c r="AQ200" s="32"/>
+    </row>
+    <row r="201" spans="1:43" ht="13" customHeight="1">
       <c r="A201" s="7" t="s">
         <v>824</v>
       </c>
@@ -20475,8 +21308,11 @@
       <c r="AF201" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="202" spans="1:40" ht="13" customHeight="1">
+      <c r="AO201" s="32"/>
+      <c r="AP201" s="32"/>
+      <c r="AQ201" s="32"/>
+    </row>
+    <row r="202" spans="1:43" ht="13" customHeight="1">
       <c r="A202" s="7" t="s">
         <v>828</v>
       </c>
@@ -20516,8 +21352,11 @@
       <c r="X202" s="7" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="203" spans="1:40" ht="13" customHeight="1">
+      <c r="AO202" s="32"/>
+      <c r="AP202" s="32"/>
+      <c r="AQ202" s="32"/>
+    </row>
+    <row r="203" spans="1:43" ht="13" customHeight="1">
       <c r="A203" s="7" t="s">
         <v>88</v>
       </c>
@@ -20614,8 +21453,11 @@
       <c r="AN203" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="204" spans="1:40" ht="13" customHeight="1">
+      <c r="AO203" s="32"/>
+      <c r="AP203" s="32"/>
+      <c r="AQ203" s="32"/>
+    </row>
+    <row r="204" spans="1:43" ht="13" customHeight="1">
       <c r="A204" s="7" t="s">
         <v>40</v>
       </c>
@@ -20625,8 +21467,11 @@
       <c r="L204" s="7" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="205" spans="1:40" ht="13" customHeight="1">
+      <c r="AO204" s="32"/>
+      <c r="AP204" s="32"/>
+      <c r="AQ204" s="32"/>
+    </row>
+    <row r="205" spans="1:43" ht="13" customHeight="1">
       <c r="A205" s="7" t="s">
         <v>824</v>
       </c>
@@ -20693,8 +21538,11 @@
       <c r="AF205" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="206" spans="1:40" ht="13" customHeight="1">
+      <c r="AO205" s="32"/>
+      <c r="AP205" s="32"/>
+      <c r="AQ205" s="32"/>
+    </row>
+    <row r="206" spans="1:43" ht="13" customHeight="1">
       <c r="A206" s="7" t="s">
         <v>828</v>
       </c>
@@ -20734,8 +21582,11 @@
       <c r="X206" s="7" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="207" spans="1:40" ht="13" customHeight="1">
+      <c r="AO206" s="32"/>
+      <c r="AP206" s="32"/>
+      <c r="AQ206" s="32"/>
+    </row>
+    <row r="207" spans="1:43" ht="13" customHeight="1">
       <c r="A207" s="7" t="s">
         <v>88</v>
       </c>
@@ -20832,8 +21683,11 @@
       <c r="AN207" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="208" spans="1:40" ht="13" customHeight="1">
+      <c r="AO207" s="32"/>
+      <c r="AP207" s="32"/>
+      <c r="AQ207" s="32"/>
+    </row>
+    <row r="208" spans="1:43" ht="13" customHeight="1">
       <c r="A208" s="7" t="s">
         <v>40</v>
       </c>
@@ -20843,8 +21697,11 @@
       <c r="L208" s="7" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="209" spans="1:40" ht="13" customHeight="1">
+      <c r="AO208" s="32"/>
+      <c r="AP208" s="32"/>
+      <c r="AQ208" s="32"/>
+    </row>
+    <row r="209" spans="1:43" ht="13" customHeight="1">
       <c r="A209" s="7" t="s">
         <v>824</v>
       </c>
@@ -20911,8 +21768,11 @@
       <c r="AF209" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="210" spans="1:40" ht="13" customHeight="1">
+      <c r="AO209" s="32"/>
+      <c r="AP209" s="32"/>
+      <c r="AQ209" s="32"/>
+    </row>
+    <row r="210" spans="1:43" ht="13" customHeight="1">
       <c r="A210" s="7" t="s">
         <v>828</v>
       </c>
@@ -20952,8 +21812,11 @@
       <c r="X210" s="7" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="211" spans="1:40" ht="13" customHeight="1">
+      <c r="AO210" s="32"/>
+      <c r="AP210" s="32"/>
+      <c r="AQ210" s="32"/>
+    </row>
+    <row r="211" spans="1:43" ht="13" customHeight="1">
       <c r="A211" s="7" t="s">
         <v>88</v>
       </c>
@@ -21050,8 +21913,11 @@
       <c r="AN211" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="212" spans="1:40" ht="13" customHeight="1">
+      <c r="AO211" s="32"/>
+      <c r="AP211" s="32"/>
+      <c r="AQ211" s="32"/>
+    </row>
+    <row r="212" spans="1:43" ht="13" customHeight="1">
       <c r="A212" s="7" t="s">
         <v>40</v>
       </c>
@@ -21061,8 +21927,11 @@
       <c r="L212" s="7" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="213" spans="1:40" ht="13" customHeight="1">
+      <c r="AO212" s="32"/>
+      <c r="AP212" s="32"/>
+      <c r="AQ212" s="32"/>
+    </row>
+    <row r="213" spans="1:43" ht="13" customHeight="1">
       <c r="A213" s="7" t="s">
         <v>824</v>
       </c>
@@ -21129,8 +21998,11 @@
       <c r="AF213" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="214" spans="1:40" ht="13" customHeight="1">
+      <c r="AO213" s="32"/>
+      <c r="AP213" s="32"/>
+      <c r="AQ213" s="32"/>
+    </row>
+    <row r="214" spans="1:43" ht="13" customHeight="1">
       <c r="A214" s="7" t="s">
         <v>828</v>
       </c>
@@ -21170,8 +22042,11 @@
       <c r="X214" s="7" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="215" spans="1:40" ht="13" customHeight="1">
+      <c r="AO214" s="32"/>
+      <c r="AP214" s="32"/>
+      <c r="AQ214" s="32"/>
+    </row>
+    <row r="215" spans="1:43" ht="13" customHeight="1">
       <c r="A215" s="7" t="s">
         <v>88</v>
       </c>
@@ -21268,8 +22143,11 @@
       <c r="AN215" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="216" spans="1:40" ht="13" customHeight="1">
+      <c r="AO215" s="32"/>
+      <c r="AP215" s="32"/>
+      <c r="AQ215" s="32"/>
+    </row>
+    <row r="216" spans="1:43" ht="13" customHeight="1">
       <c r="A216" s="7" t="s">
         <v>40</v>
       </c>
@@ -21279,8 +22157,11 @@
       <c r="L216" s="7" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="217" spans="1:40" ht="13" customHeight="1">
+      <c r="AO216" s="32"/>
+      <c r="AP216" s="32"/>
+      <c r="AQ216" s="32"/>
+    </row>
+    <row r="217" spans="1:43" ht="13" customHeight="1">
       <c r="A217" s="7" t="s">
         <v>824</v>
       </c>
@@ -21347,8 +22228,11 @@
       <c r="AF217" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="218" spans="1:40" ht="13" customHeight="1">
+      <c r="AO217" s="32"/>
+      <c r="AP217" s="32"/>
+      <c r="AQ217" s="32"/>
+    </row>
+    <row r="218" spans="1:43" ht="13" customHeight="1">
       <c r="A218" s="7" t="s">
         <v>828</v>
       </c>
@@ -21388,8 +22272,11 @@
       <c r="X218" s="7" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="219" spans="1:40" ht="13" customHeight="1">
+      <c r="AO218" s="32"/>
+      <c r="AP218" s="32"/>
+      <c r="AQ218" s="32"/>
+    </row>
+    <row r="219" spans="1:43" ht="13" customHeight="1">
       <c r="A219" s="7" t="s">
         <v>88</v>
       </c>
@@ -21486,8 +22373,11 @@
       <c r="AN219" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="220" spans="1:40" ht="13" customHeight="1">
+      <c r="AO219" s="32"/>
+      <c r="AP219" s="32"/>
+      <c r="AQ219" s="32"/>
+    </row>
+    <row r="220" spans="1:43" ht="13" customHeight="1">
       <c r="A220" s="7" t="s">
         <v>40</v>
       </c>
@@ -21497,8 +22387,11 @@
       <c r="L220" s="7" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="221" spans="1:40" ht="13" customHeight="1">
+      <c r="AO220" s="32"/>
+      <c r="AP220" s="32"/>
+      <c r="AQ220" s="32"/>
+    </row>
+    <row r="221" spans="1:43" ht="13" customHeight="1">
       <c r="A221" s="7" t="s">
         <v>824</v>
       </c>
@@ -21565,8 +22458,11 @@
       <c r="AF221" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="222" spans="1:40" ht="13" customHeight="1">
+      <c r="AO221" s="32"/>
+      <c r="AP221" s="32"/>
+      <c r="AQ221" s="32"/>
+    </row>
+    <row r="222" spans="1:43" ht="13" customHeight="1">
       <c r="A222" s="7" t="s">
         <v>828</v>
       </c>
@@ -21606,8 +22502,11 @@
       <c r="X222" s="7" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="223" spans="1:40" ht="13" customHeight="1">
+      <c r="AO222" s="32"/>
+      <c r="AP222" s="32"/>
+      <c r="AQ222" s="32"/>
+    </row>
+    <row r="223" spans="1:43" ht="13" customHeight="1">
       <c r="A223" s="7" t="s">
         <v>88</v>
       </c>
@@ -21704,8 +22603,11 @@
       <c r="AN223" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="224" spans="1:40" ht="13" customHeight="1">
+      <c r="AO223" s="32"/>
+      <c r="AP223" s="32"/>
+      <c r="AQ223" s="32"/>
+    </row>
+    <row r="224" spans="1:43" ht="13" customHeight="1">
       <c r="A224" s="7" t="s">
         <v>40</v>
       </c>
@@ -21715,8 +22617,11 @@
       <c r="L224" s="7" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="225" spans="1:40" ht="13" customHeight="1">
+      <c r="AO224" s="32"/>
+      <c r="AP224" s="32"/>
+      <c r="AQ224" s="32"/>
+    </row>
+    <row r="225" spans="1:43" ht="13" customHeight="1">
       <c r="A225" s="7" t="s">
         <v>824</v>
       </c>
@@ -21783,8 +22688,11 @@
       <c r="AF225" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="226" spans="1:40" ht="13" customHeight="1">
+      <c r="AO225" s="32"/>
+      <c r="AP225" s="32"/>
+      <c r="AQ225" s="32"/>
+    </row>
+    <row r="226" spans="1:43" ht="13" customHeight="1">
       <c r="A226" s="7" t="s">
         <v>828</v>
       </c>
@@ -21824,8 +22732,11 @@
       <c r="X226" s="7" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="227" spans="1:40" ht="13" customHeight="1">
+      <c r="AO226" s="32"/>
+      <c r="AP226" s="32"/>
+      <c r="AQ226" s="32"/>
+    </row>
+    <row r="227" spans="1:43" ht="13" customHeight="1">
       <c r="A227" s="7" t="s">
         <v>88</v>
       </c>
@@ -21922,8 +22833,11 @@
       <c r="AN227" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="228" spans="1:40" ht="13" customHeight="1">
+      <c r="AO227" s="32"/>
+      <c r="AP227" s="32"/>
+      <c r="AQ227" s="32"/>
+    </row>
+    <row r="228" spans="1:43" ht="13" customHeight="1">
       <c r="A228" s="7" t="s">
         <v>824</v>
       </c>
@@ -21990,8 +22904,11 @@
       <c r="AF228" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="229" spans="1:40" ht="13" customHeight="1">
+      <c r="AO228" s="32"/>
+      <c r="AP228" s="32"/>
+      <c r="AQ228" s="32"/>
+    </row>
+    <row r="229" spans="1:43" ht="13" customHeight="1">
       <c r="A229" s="7" t="s">
         <v>824</v>
       </c>
@@ -22058,8 +22975,11 @@
       <c r="AF229" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="230" spans="1:40" ht="13" customHeight="1">
+      <c r="AO229" s="32"/>
+      <c r="AP229" s="32"/>
+      <c r="AQ229" s="32"/>
+    </row>
+    <row r="230" spans="1:43" ht="13" customHeight="1">
       <c r="A230" s="7" t="s">
         <v>88</v>
       </c>
@@ -22156,8 +23076,11 @@
       <c r="AN230" s="7" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="231" spans="1:40" ht="13" customHeight="1">
+      <c r="AO230" s="32"/>
+      <c r="AP230" s="32"/>
+      <c r="AQ230" s="32"/>
+    </row>
+    <row r="231" spans="1:43" ht="13" customHeight="1">
       <c r="A231" s="7" t="s">
         <v>101</v>
       </c>
@@ -22194,8 +23117,11 @@
       <c r="X231" s="7" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="232" spans="1:40" ht="13" customHeight="1">
+      <c r="AO231" s="32"/>
+      <c r="AP231" s="32"/>
+      <c r="AQ231" s="32"/>
+    </row>
+    <row r="232" spans="1:43" ht="13" customHeight="1">
       <c r="A232" s="7" t="s">
         <v>40</v>
       </c>
@@ -22205,8 +23131,11 @@
       <c r="L232" s="7" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="233" spans="1:40" ht="13" customHeight="1">
+      <c r="AO232" s="32"/>
+      <c r="AP232" s="32"/>
+      <c r="AQ232" s="32"/>
+    </row>
+    <row r="233" spans="1:43" ht="13" customHeight="1">
       <c r="A233" s="7" t="s">
         <v>1171</v>
       </c>
@@ -22276,8 +23205,11 @@
       <c r="AF233" s="7" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="234" spans="1:40" ht="13" customHeight="1">
+      <c r="AO233" s="32"/>
+      <c r="AP233" s="32"/>
+      <c r="AQ233" s="32"/>
+    </row>
+    <row r="234" spans="1:43" ht="13" customHeight="1">
       <c r="A234" s="7" t="s">
         <v>101</v>
       </c>
@@ -22341,8 +23273,11 @@
       <c r="AF234" s="7" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="235" spans="1:40" ht="13" customHeight="1">
+      <c r="AO234" s="32"/>
+      <c r="AP234" s="32"/>
+      <c r="AQ234" s="32"/>
+    </row>
+    <row r="235" spans="1:43" ht="13" customHeight="1">
       <c r="A235" s="7" t="s">
         <v>101</v>
       </c>
@@ -22376,8 +23311,11 @@
       <c r="X235" s="7" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="236" spans="1:40" ht="13" customHeight="1">
+      <c r="AO235" s="32"/>
+      <c r="AP235" s="32"/>
+      <c r="AQ235" s="32"/>
+    </row>
+    <row r="236" spans="1:43" ht="13" customHeight="1">
       <c r="A236" s="7" t="s">
         <v>1182</v>
       </c>
@@ -22438,8 +23376,11 @@
       <c r="AF236" s="7" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="237" spans="1:40" ht="13" customHeight="1">
+      <c r="AO236" s="32"/>
+      <c r="AP236" s="32"/>
+      <c r="AQ236" s="32"/>
+    </row>
+    <row r="237" spans="1:43" ht="13" customHeight="1">
       <c r="A237" s="7" t="s">
         <v>1186</v>
       </c>
@@ -22476,8 +23417,11 @@
       <c r="X237" s="7" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="238" spans="1:40" ht="13" customHeight="1">
+      <c r="AO237" s="32"/>
+      <c r="AP237" s="32"/>
+      <c r="AQ237" s="32"/>
+    </row>
+    <row r="238" spans="1:43" ht="13" customHeight="1">
       <c r="A238" s="7" t="s">
         <v>1189</v>
       </c>
@@ -22514,8 +23458,11 @@
       <c r="X238" s="7" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="239" spans="1:40" ht="13" customHeight="1">
+      <c r="AO238" s="32"/>
+      <c r="AP238" s="32"/>
+      <c r="AQ238" s="32"/>
+    </row>
+    <row r="239" spans="1:43" ht="13" customHeight="1">
       <c r="A239" s="7" t="s">
         <v>1192</v>
       </c>
@@ -22609,8 +23556,11 @@
       <c r="AN239" s="7" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="240" spans="1:40" ht="13" customHeight="1">
+      <c r="AO239" s="32"/>
+      <c r="AP239" s="32"/>
+      <c r="AQ239" s="32"/>
+    </row>
+    <row r="240" spans="1:43" ht="13" customHeight="1">
       <c r="A240" s="7" t="s">
         <v>1198</v>
       </c>
@@ -22644,8 +23594,11 @@
       <c r="X240" s="7" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="241" spans="1:24" ht="13" customHeight="1">
+      <c r="AO240" s="32"/>
+      <c r="AP240" s="32"/>
+      <c r="AQ240" s="32"/>
+    </row>
+    <row r="241" spans="1:43" ht="13" customHeight="1">
       <c r="A241" s="7" t="s">
         <v>1200</v>
       </c>
@@ -22679,8 +23632,11 @@
       <c r="X241" s="7" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="242" spans="1:24" ht="13" customHeight="1">
+      <c r="AO241" s="32"/>
+      <c r="AP241" s="32"/>
+      <c r="AQ241" s="32"/>
+    </row>
+    <row r="242" spans="1:43" ht="13" customHeight="1">
       <c r="A242" s="7" t="s">
         <v>1201</v>
       </c>
@@ -22714,8 +23670,11 @@
       <c r="X242" s="7" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="243" spans="1:24" ht="13" customHeight="1">
+      <c r="AO242" s="32"/>
+      <c r="AP242" s="32"/>
+      <c r="AQ242" s="32"/>
+    </row>
+    <row r="243" spans="1:43" ht="13" customHeight="1">
       <c r="A243" s="7" t="s">
         <v>1202</v>
       </c>
@@ -22749,8 +23708,11 @@
       <c r="X243" s="7" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="244" spans="1:24" ht="13" customHeight="1">
+      <c r="AO243" s="32"/>
+      <c r="AP243" s="32"/>
+      <c r="AQ243" s="32"/>
+    </row>
+    <row r="244" spans="1:43" ht="13" customHeight="1">
       <c r="A244" s="7" t="s">
         <v>1203</v>
       </c>
@@ -22784,6 +23746,459 @@
       <c r="X244" s="7" t="s">
         <v>1199</v>
       </c>
+      <c r="AO244" s="32"/>
+      <c r="AP244" s="32"/>
+      <c r="AQ244" s="32"/>
+    </row>
+    <row r="245" spans="1:43" ht="13" customHeight="1">
+      <c r="AO245" s="32"/>
+      <c r="AP245" s="32"/>
+      <c r="AQ245" s="32"/>
+    </row>
+    <row r="246" spans="1:43" ht="13" customHeight="1">
+      <c r="AO246" s="32"/>
+      <c r="AP246" s="32"/>
+      <c r="AQ246" s="32"/>
+    </row>
+    <row r="247" spans="1:43" ht="13" customHeight="1">
+      <c r="AO247" s="32"/>
+      <c r="AP247" s="32"/>
+      <c r="AQ247" s="32"/>
+    </row>
+    <row r="248" spans="1:43" ht="13" customHeight="1">
+      <c r="AO248" s="32"/>
+      <c r="AP248" s="32"/>
+      <c r="AQ248" s="32"/>
+    </row>
+    <row r="249" spans="1:43" ht="13" customHeight="1">
+      <c r="AO249" s="32"/>
+      <c r="AP249" s="32"/>
+      <c r="AQ249" s="32"/>
+    </row>
+    <row r="250" spans="1:43" ht="13" customHeight="1">
+      <c r="AO250" s="32"/>
+      <c r="AP250" s="32"/>
+      <c r="AQ250" s="32"/>
+    </row>
+    <row r="251" spans="1:43" ht="13" customHeight="1">
+      <c r="AO251" s="32"/>
+      <c r="AP251" s="32"/>
+      <c r="AQ251" s="32"/>
+    </row>
+    <row r="252" spans="1:43" ht="13" customHeight="1">
+      <c r="AO252" s="32"/>
+      <c r="AP252" s="32"/>
+      <c r="AQ252" s="32"/>
+    </row>
+    <row r="253" spans="1:43" ht="13" customHeight="1">
+      <c r="AO253" s="32"/>
+      <c r="AP253" s="32"/>
+      <c r="AQ253" s="32"/>
+    </row>
+    <row r="254" spans="1:43" ht="13" customHeight="1">
+      <c r="AO254" s="32"/>
+      <c r="AP254" s="32"/>
+      <c r="AQ254" s="32"/>
+    </row>
+    <row r="255" spans="1:43" ht="13" customHeight="1">
+      <c r="AO255" s="32"/>
+      <c r="AP255" s="32"/>
+      <c r="AQ255" s="32"/>
+    </row>
+    <row r="256" spans="1:43" ht="13" customHeight="1">
+      <c r="AO256" s="32"/>
+      <c r="AP256" s="32"/>
+      <c r="AQ256" s="32"/>
+    </row>
+    <row r="257" spans="41:43" ht="13" customHeight="1">
+      <c r="AO257" s="32"/>
+      <c r="AP257" s="32"/>
+      <c r="AQ257" s="32"/>
+    </row>
+    <row r="258" spans="41:43" ht="13" customHeight="1">
+      <c r="AO258" s="32"/>
+      <c r="AP258" s="32"/>
+      <c r="AQ258" s="32"/>
+    </row>
+    <row r="259" spans="41:43" ht="13" customHeight="1">
+      <c r="AO259" s="32"/>
+      <c r="AP259" s="32"/>
+      <c r="AQ259" s="32"/>
+    </row>
+    <row r="260" spans="41:43" ht="13" customHeight="1">
+      <c r="AO260" s="32"/>
+      <c r="AP260" s="32"/>
+      <c r="AQ260" s="32"/>
+    </row>
+    <row r="261" spans="41:43" ht="13" customHeight="1">
+      <c r="AO261" s="32"/>
+      <c r="AP261" s="32"/>
+      <c r="AQ261" s="32"/>
+    </row>
+    <row r="262" spans="41:43" ht="13" customHeight="1">
+      <c r="AO262" s="32"/>
+      <c r="AP262" s="32"/>
+      <c r="AQ262" s="32"/>
+    </row>
+    <row r="263" spans="41:43" ht="13" customHeight="1">
+      <c r="AO263" s="32"/>
+      <c r="AP263" s="32"/>
+      <c r="AQ263" s="32"/>
+    </row>
+    <row r="264" spans="41:43" ht="13" customHeight="1">
+      <c r="AO264" s="32"/>
+      <c r="AP264" s="32"/>
+      <c r="AQ264" s="32"/>
+    </row>
+    <row r="265" spans="41:43" ht="13" customHeight="1">
+      <c r="AO265" s="32"/>
+      <c r="AP265" s="32"/>
+      <c r="AQ265" s="32"/>
+    </row>
+    <row r="266" spans="41:43" ht="13" customHeight="1">
+      <c r="AO266" s="32"/>
+      <c r="AP266" s="32"/>
+      <c r="AQ266" s="32"/>
+    </row>
+    <row r="267" spans="41:43" ht="13" customHeight="1">
+      <c r="AO267" s="32"/>
+      <c r="AP267" s="32"/>
+      <c r="AQ267" s="32"/>
+    </row>
+    <row r="268" spans="41:43" ht="13" customHeight="1">
+      <c r="AO268" s="32"/>
+      <c r="AP268" s="32"/>
+      <c r="AQ268" s="32"/>
+    </row>
+    <row r="269" spans="41:43" ht="13" customHeight="1">
+      <c r="AO269" s="32"/>
+      <c r="AP269" s="32"/>
+      <c r="AQ269" s="32"/>
+    </row>
+    <row r="270" spans="41:43" ht="13" customHeight="1">
+      <c r="AO270" s="32"/>
+      <c r="AP270" s="32"/>
+      <c r="AQ270" s="32"/>
+    </row>
+    <row r="271" spans="41:43" ht="13" customHeight="1">
+      <c r="AO271" s="32"/>
+      <c r="AP271" s="32"/>
+      <c r="AQ271" s="32"/>
+    </row>
+    <row r="272" spans="41:43" ht="13" customHeight="1">
+      <c r="AO272" s="32"/>
+      <c r="AP272" s="32"/>
+      <c r="AQ272" s="32"/>
+    </row>
+    <row r="273" spans="41:43" ht="13" customHeight="1">
+      <c r="AO273" s="32"/>
+      <c r="AP273" s="32"/>
+      <c r="AQ273" s="32"/>
+    </row>
+    <row r="274" spans="41:43" ht="13" customHeight="1">
+      <c r="AO274" s="32"/>
+      <c r="AP274" s="32"/>
+      <c r="AQ274" s="32"/>
+    </row>
+    <row r="275" spans="41:43" ht="13" customHeight="1">
+      <c r="AO275" s="32"/>
+      <c r="AP275" s="32"/>
+      <c r="AQ275" s="32"/>
+    </row>
+    <row r="276" spans="41:43" ht="13" customHeight="1">
+      <c r="AO276" s="32"/>
+      <c r="AP276" s="32"/>
+      <c r="AQ276" s="32"/>
+    </row>
+    <row r="277" spans="41:43" ht="13" customHeight="1">
+      <c r="AO277" s="32"/>
+      <c r="AP277" s="32"/>
+      <c r="AQ277" s="32"/>
+    </row>
+    <row r="278" spans="41:43" ht="13" customHeight="1">
+      <c r="AO278" s="32"/>
+      <c r="AP278" s="32"/>
+      <c r="AQ278" s="32"/>
+    </row>
+    <row r="279" spans="41:43" ht="13" customHeight="1">
+      <c r="AO279" s="32"/>
+      <c r="AP279" s="32"/>
+      <c r="AQ279" s="32"/>
+    </row>
+    <row r="280" spans="41:43" ht="13" customHeight="1">
+      <c r="AO280" s="36"/>
+      <c r="AP280" s="36"/>
+      <c r="AQ280" s="36"/>
+    </row>
+    <row r="281" spans="41:43" ht="13" customHeight="1">
+      <c r="AO281" s="36"/>
+      <c r="AP281" s="36"/>
+      <c r="AQ281" s="36"/>
+    </row>
+    <row r="282" spans="41:43" ht="13" customHeight="1">
+      <c r="AO282" s="36"/>
+      <c r="AP282" s="36"/>
+      <c r="AQ282" s="36"/>
+    </row>
+    <row r="283" spans="41:43" ht="13" customHeight="1">
+      <c r="AO283" s="36"/>
+      <c r="AP283" s="36"/>
+      <c r="AQ283" s="36"/>
+    </row>
+    <row r="284" spans="41:43" ht="13" customHeight="1">
+      <c r="AO284" s="36"/>
+      <c r="AP284" s="36"/>
+      <c r="AQ284" s="36"/>
+    </row>
+    <row r="285" spans="41:43" ht="13" customHeight="1">
+      <c r="AO285" s="36"/>
+      <c r="AP285" s="36"/>
+      <c r="AQ285" s="36"/>
+    </row>
+    <row r="286" spans="41:43" ht="13" customHeight="1">
+      <c r="AO286" s="32"/>
+      <c r="AP286" s="32"/>
+      <c r="AQ286" s="32"/>
+    </row>
+    <row r="287" spans="41:43" ht="13" customHeight="1">
+      <c r="AO287" s="32"/>
+      <c r="AP287" s="32"/>
+      <c r="AQ287" s="32"/>
+    </row>
+    <row r="288" spans="41:43" ht="13" customHeight="1">
+      <c r="AO288" s="32"/>
+      <c r="AP288" s="32"/>
+      <c r="AQ288" s="32"/>
+    </row>
+    <row r="289" spans="41:43" ht="13" customHeight="1">
+      <c r="AO289" s="32"/>
+      <c r="AP289" s="32"/>
+      <c r="AQ289" s="32"/>
+    </row>
+    <row r="290" spans="41:43" ht="13" customHeight="1">
+      <c r="AO290" s="32"/>
+      <c r="AP290" s="32"/>
+      <c r="AQ290" s="32"/>
+    </row>
+    <row r="291" spans="41:43" ht="13" customHeight="1">
+      <c r="AO291" s="32"/>
+      <c r="AP291" s="32"/>
+      <c r="AQ291" s="32"/>
+    </row>
+    <row r="292" spans="41:43" ht="13" customHeight="1">
+      <c r="AO292" s="32"/>
+      <c r="AP292" s="32"/>
+      <c r="AQ292" s="32"/>
+    </row>
+    <row r="293" spans="41:43" ht="13" customHeight="1">
+      <c r="AO293" s="32"/>
+      <c r="AP293" s="32"/>
+      <c r="AQ293" s="32"/>
+    </row>
+    <row r="294" spans="41:43" ht="13" customHeight="1">
+      <c r="AO294" s="32"/>
+      <c r="AP294" s="32"/>
+      <c r="AQ294" s="32"/>
+    </row>
+    <row r="295" spans="41:43" ht="13" customHeight="1">
+      <c r="AO295" s="32"/>
+      <c r="AP295" s="32"/>
+      <c r="AQ295" s="32"/>
+    </row>
+    <row r="296" spans="41:43" ht="13" customHeight="1">
+      <c r="AO296" s="32"/>
+      <c r="AP296" s="32"/>
+      <c r="AQ296" s="32"/>
+    </row>
+    <row r="297" spans="41:43" ht="13" customHeight="1">
+      <c r="AO297" s="32"/>
+      <c r="AP297" s="32"/>
+      <c r="AQ297" s="32"/>
+    </row>
+    <row r="298" spans="41:43" ht="13" customHeight="1">
+      <c r="AO298" s="32"/>
+      <c r="AP298" s="32"/>
+      <c r="AQ298" s="32"/>
+    </row>
+    <row r="299" spans="41:43" ht="13" customHeight="1">
+      <c r="AO299" s="32"/>
+      <c r="AP299" s="32"/>
+      <c r="AQ299" s="32"/>
+    </row>
+    <row r="300" spans="41:43" ht="13" customHeight="1">
+      <c r="AO300" s="32"/>
+      <c r="AP300" s="32"/>
+      <c r="AQ300" s="32"/>
+    </row>
+    <row r="301" spans="41:43" ht="13" customHeight="1">
+      <c r="AO301" s="32"/>
+      <c r="AP301" s="32"/>
+      <c r="AQ301" s="32"/>
+    </row>
+    <row r="302" spans="41:43" ht="13" customHeight="1">
+      <c r="AO302" s="32"/>
+      <c r="AP302" s="32"/>
+      <c r="AQ302" s="32"/>
+    </row>
+    <row r="303" spans="41:43" ht="13" customHeight="1">
+      <c r="AO303" s="32"/>
+      <c r="AP303" s="32"/>
+      <c r="AQ303" s="32"/>
+    </row>
+    <row r="304" spans="41:43" ht="13" customHeight="1">
+      <c r="AO304" s="32"/>
+      <c r="AP304" s="32"/>
+      <c r="AQ304" s="32"/>
+    </row>
+    <row r="305" spans="41:43" ht="13" customHeight="1">
+      <c r="AO305" s="32"/>
+      <c r="AP305" s="32"/>
+      <c r="AQ305" s="32"/>
+    </row>
+    <row r="306" spans="41:43" ht="13" customHeight="1">
+      <c r="AO306" s="32"/>
+      <c r="AP306" s="32"/>
+      <c r="AQ306" s="32"/>
+    </row>
+    <row r="307" spans="41:43" ht="13" customHeight="1">
+      <c r="AO307" s="32"/>
+      <c r="AP307" s="32"/>
+      <c r="AQ307" s="32"/>
+    </row>
+    <row r="308" spans="41:43" ht="13" customHeight="1">
+      <c r="AO308" s="32"/>
+      <c r="AP308" s="32"/>
+      <c r="AQ308" s="32"/>
+    </row>
+    <row r="309" spans="41:43" ht="13" customHeight="1">
+      <c r="AO309" s="32"/>
+      <c r="AP309" s="32"/>
+      <c r="AQ309" s="32"/>
+    </row>
+    <row r="310" spans="41:43" ht="13" customHeight="1">
+      <c r="AO310" s="32"/>
+      <c r="AP310" s="32"/>
+      <c r="AQ310" s="32"/>
+    </row>
+    <row r="311" spans="41:43" ht="13" customHeight="1">
+      <c r="AO311" s="32"/>
+      <c r="AP311" s="32"/>
+      <c r="AQ311" s="32"/>
+    </row>
+    <row r="312" spans="41:43" ht="13" customHeight="1">
+      <c r="AO312" s="32"/>
+      <c r="AP312" s="32"/>
+      <c r="AQ312" s="32"/>
+    </row>
+    <row r="313" spans="41:43" ht="13" customHeight="1">
+      <c r="AO313" s="32"/>
+      <c r="AP313" s="32"/>
+      <c r="AQ313" s="32"/>
+    </row>
+    <row r="314" spans="41:43" ht="13" customHeight="1">
+      <c r="AO314" s="32"/>
+      <c r="AP314" s="32"/>
+      <c r="AQ314" s="32"/>
+    </row>
+    <row r="315" spans="41:43" ht="13" customHeight="1">
+      <c r="AO315" s="32"/>
+      <c r="AP315" s="32"/>
+      <c r="AQ315" s="32"/>
+    </row>
+    <row r="316" spans="41:43" ht="13" customHeight="1">
+      <c r="AO316" s="32"/>
+      <c r="AP316" s="32"/>
+      <c r="AQ316" s="32"/>
+    </row>
+    <row r="317" spans="41:43" ht="13" customHeight="1">
+      <c r="AO317" s="32"/>
+      <c r="AP317" s="32"/>
+      <c r="AQ317" s="32"/>
+    </row>
+    <row r="318" spans="41:43" ht="13" customHeight="1">
+      <c r="AO318" s="32"/>
+      <c r="AP318" s="32"/>
+      <c r="AQ318" s="32"/>
+    </row>
+    <row r="319" spans="41:43" ht="13" customHeight="1">
+      <c r="AO319" s="32"/>
+      <c r="AP319" s="32"/>
+      <c r="AQ319" s="32"/>
+    </row>
+    <row r="320" spans="41:43" ht="13" customHeight="1">
+      <c r="AO320" s="32"/>
+      <c r="AP320" s="32"/>
+      <c r="AQ320" s="32"/>
+    </row>
+    <row r="321" spans="41:43" ht="13" customHeight="1">
+      <c r="AO321" s="32"/>
+      <c r="AP321" s="32"/>
+      <c r="AQ321" s="32"/>
+    </row>
+    <row r="322" spans="41:43" ht="13" customHeight="1">
+      <c r="AO322" s="32"/>
+      <c r="AP322" s="32"/>
+      <c r="AQ322" s="32"/>
+    </row>
+    <row r="323" spans="41:43" ht="13" customHeight="1">
+      <c r="AO323" s="32"/>
+      <c r="AP323" s="32"/>
+      <c r="AQ323" s="32"/>
+    </row>
+    <row r="324" spans="41:43" ht="13" customHeight="1">
+      <c r="AO324" s="32"/>
+      <c r="AP324" s="32"/>
+      <c r="AQ324" s="32"/>
+    </row>
+    <row r="325" spans="41:43" ht="13" customHeight="1">
+      <c r="AO325" s="32"/>
+      <c r="AP325" s="32"/>
+      <c r="AQ325" s="32"/>
+    </row>
+    <row r="326" spans="41:43" ht="13" customHeight="1">
+      <c r="AO326" s="32"/>
+      <c r="AP326" s="32"/>
+      <c r="AQ326" s="32"/>
+    </row>
+    <row r="327" spans="41:43" ht="13" customHeight="1">
+      <c r="AO327" s="32"/>
+      <c r="AP327" s="32"/>
+      <c r="AQ327" s="32"/>
+    </row>
+    <row r="328" spans="41:43" ht="13" customHeight="1">
+      <c r="AO328" s="32"/>
+      <c r="AP328" s="32"/>
+      <c r="AQ328" s="32"/>
+    </row>
+    <row r="329" spans="41:43" ht="13" customHeight="1">
+      <c r="AO329" s="32"/>
+      <c r="AP329" s="32"/>
+      <c r="AQ329" s="32"/>
+    </row>
+    <row r="330" spans="41:43" ht="13" customHeight="1">
+      <c r="AO330" s="32"/>
+      <c r="AP330" s="32"/>
+      <c r="AQ330" s="32"/>
+    </row>
+    <row r="331" spans="41:43" ht="13" customHeight="1">
+      <c r="AO331" s="32"/>
+      <c r="AP331" s="32"/>
+      <c r="AQ331" s="32"/>
+    </row>
+    <row r="332" spans="41:43" ht="13" customHeight="1">
+      <c r="AO332" s="32"/>
+      <c r="AP332" s="32"/>
+      <c r="AQ332" s="32"/>
+    </row>
+    <row r="333" spans="41:43" ht="13" customHeight="1">
+      <c r="AO333" s="32"/>
+      <c r="AP333" s="32"/>
+      <c r="AQ333" s="32"/>
+    </row>
+    <row r="334" spans="41:43" ht="13" customHeight="1">
+      <c r="AO334" s="32"/>
+      <c r="AP334" s="32"/>
+      <c r="AQ334" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/HQ.xlsx
+++ b/test/HQ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6331" uniqueCount="2375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6331" uniqueCount="2374">
   <si>
     <t>type</t>
   </si>
@@ -5990,6 +5990,9 @@
     <t>level3_list</t>
   </si>
   <si>
+    <t>EA_list</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -7535,25 +7538,19 @@
     <t>level3_list_example5</t>
   </si>
   <si>
-    <t>level4_list</t>
-  </si>
-  <si>
-    <t>level4_list_example1</t>
-  </si>
-  <si>
-    <t>Level 4 Geography</t>
-  </si>
-  <si>
-    <t>level4_list_example2</t>
-  </si>
-  <si>
-    <t>level4_list_example3</t>
-  </si>
-  <si>
-    <t>level4_list_example4</t>
-  </si>
-  <si>
-    <t>level4_list_example5</t>
+    <t>EA_list_example1</t>
+  </si>
+  <si>
+    <t>EA_list_example2</t>
+  </si>
+  <si>
+    <t>EA_list_example3</t>
+  </si>
+  <si>
+    <t>EA_list_example4</t>
+  </si>
+  <si>
+    <t>EA_list_example5</t>
   </si>
 </sst>
 </file>
@@ -8150,7 +8147,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -8311,34 +8308,34 @@
       </c>
       <c r="AO1" s="25"/>
       <c r="AP1" s="25" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="AQ1" s="25" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="AR1" s="30" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="AS1" s="30" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="AT1" s="30" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="AU1" s="30" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="AV1" s="30" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="AW1" s="30" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="AX1" s="30" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="AY1" s="30" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="13" customHeight="1">
@@ -8596,7 +8593,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>66</v>
@@ -8614,7 +8611,7 @@
         <v>68</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>65</v>
@@ -8698,7 +8695,7 @@
     </row>
     <row r="12" spans="1:51" ht="13" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -8710,7 +8707,7 @@
         <v>46</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>75</v>
@@ -8739,31 +8736,31 @@
       <c r="AO12" s="25"/>
       <c r="AP12" s="25"/>
       <c r="AQ12" s="25" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AR12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AS12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AT12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AU12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AV12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AW12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AX12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AY12" s="31" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="13" spans="1:51" ht="13" customHeight="1">
@@ -8809,31 +8806,31 @@
       <c r="AO13" s="25"/>
       <c r="AP13" s="25"/>
       <c r="AQ13" s="25" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AR13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AS13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AT13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AU13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AV13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AW13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AX13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AY13" s="31" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="14" spans="1:51" ht="13" customHeight="1">
@@ -8879,31 +8876,31 @@
       <c r="AO14" s="25"/>
       <c r="AP14" s="25"/>
       <c r="AQ14" s="25" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AR14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AS14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AT14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AU14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AV14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AW14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AX14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AY14" s="31" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="15" spans="1:51" ht="13" customHeight="1">
@@ -8949,31 +8946,31 @@
       <c r="AO15" s="25"/>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="25" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AR15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AS15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AT15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AU15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AV15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AW15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AX15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AY15" s="31" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="16" spans="1:51" ht="13" customHeight="1">
@@ -9590,7 +9587,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>118</v>
@@ -9599,28 +9596,28 @@
         <v>46</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="W25" s="13" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="AO25" s="25"/>
       <c r="AP25" s="25"/>
@@ -9652,7 +9649,7 @@
         <v>124</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>126</v>
@@ -9678,7 +9675,7 @@
         <v>127</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -9935,7 +9932,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>144</v>
@@ -9986,7 +9983,7 @@
         <v>148</v>
       </c>
       <c r="AC32" s="18" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="AD32" s="18" t="s">
         <v>148</v>
@@ -10169,28 +10166,28 @@
         <v>46</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="V38" s="7" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="W38" s="7" t="s">
+        <v>2212</v>
+      </c>
+      <c r="X38" s="7" t="s">
         <v>2211</v>
-      </c>
-      <c r="X38" s="7" t="s">
-        <v>2210</v>
       </c>
       <c r="AO38" s="26"/>
       <c r="AP38" s="26"/>
@@ -10238,22 +10235,22 @@
         <v>46</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>170</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="W41" s="7" t="s">
         <v>170</v>
@@ -10291,28 +10288,28 @@
         <v>176</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="Y42" s="17" t="s">
         <v>173</v>
@@ -10411,28 +10408,28 @@
         <v>182</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="X45" s="7" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>181</v>
@@ -10476,28 +10473,28 @@
         <v>46</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="W46" s="7" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="AO46" s="25"/>
       <c r="AP46" s="25"/>
@@ -10517,28 +10514,28 @@
         <v>46</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
@@ -10832,7 +10829,7 @@
         <v>217</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="AO56" s="28"/>
       <c r="AP56" s="28"/>
@@ -11370,7 +11367,7 @@
         <v>101</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>277</v>
@@ -11409,7 +11406,7 @@
         <v>277</v>
       </c>
       <c r="Y76" s="18" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="Z76" s="18" t="s">
         <v>279</v>
@@ -13308,7 +13305,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>434</v>
@@ -13589,7 +13586,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>446</v>
@@ -13669,28 +13666,28 @@
         <v>141</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="U108" s="7" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="V108" s="7" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="W108" s="7" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="X108" s="7" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="AO108" s="26"/>
       <c r="AP108" s="26"/>
@@ -14048,28 +14045,28 @@
         <v>495</v>
       </c>
       <c r="Q116" s="13" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="R116" s="13" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="S116" s="13" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="T116" s="13" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="U116" s="13" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="V116" s="13" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="W116" s="13" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="X116" s="13" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="Y116" s="7" t="s">
         <v>492</v>
@@ -14149,28 +14146,28 @@
         <v>498</v>
       </c>
       <c r="Q117" s="13" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="R117" s="13" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="S117" s="13" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="T117" s="13" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="U117" s="13" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="V117" s="13" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="W117" s="13" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="X117" s="13" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="Y117" s="7" t="s">
         <v>492</v>
@@ -14302,28 +14299,28 @@
         <v>508</v>
       </c>
       <c r="Q120" s="13" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="R120" s="13" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="S120" s="13" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="T120" s="13" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="U120" s="13" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="V120" s="13" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="W120" s="13" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="X120" s="13" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="AG120" s="7" t="s">
         <v>476</v>
@@ -14376,28 +14373,28 @@
         <v>508</v>
       </c>
       <c r="Q121" s="7" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="S121" s="16" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="T121" s="7" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="U121" s="7" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="V121" s="7" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="W121" s="7" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="X121" s="7" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="Y121" s="7" t="s">
         <v>511</v>
@@ -14447,7 +14444,7 @@
         <v>516</v>
       </c>
       <c r="R122" s="7" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="S122" s="7" t="s">
         <v>517</v>
@@ -14494,28 +14491,28 @@
         <v>525</v>
       </c>
       <c r="Q123" s="13" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="R123" s="13" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="S123" s="13" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="T123" s="13" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="U123" s="13" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="V123" s="13" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="W123" s="13" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="X123" s="13" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="AG123" s="7" t="s">
         <v>92</v>
@@ -14568,28 +14565,28 @@
         <v>525</v>
       </c>
       <c r="Q124" s="7" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="R124" s="7" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="S124" s="16" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="T124" s="7" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="U124" s="7" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="V124" s="7" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="W124" s="7" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="X124" s="7" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="Y124" s="7" t="s">
         <v>511</v>
@@ -14639,7 +14636,7 @@
         <v>530</v>
       </c>
       <c r="R125" s="7" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="S125" s="7" t="s">
         <v>531</v>
@@ -14648,7 +14645,7 @@
         <v>532</v>
       </c>
       <c r="U125" s="7" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="V125" s="7" t="s">
         <v>533</v>
@@ -14689,10 +14686,10 @@
         <v>525</v>
       </c>
       <c r="Q126" s="7" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="R126" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S126" s="7" t="s">
         <v>540</v>
@@ -14707,7 +14704,7 @@
         <v>543</v>
       </c>
       <c r="W126" s="7" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="X126" s="7" t="s">
         <v>544</v>
@@ -14787,28 +14784,28 @@
         <v>547</v>
       </c>
       <c r="Q127" s="13" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="R127" s="13" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="S127" s="13" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="T127" s="13" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="U127" s="13" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="V127" s="13" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="W127" s="13" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="X127" s="13" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="AG127" s="7" t="s">
         <v>92</v>
@@ -14861,28 +14858,28 @@
         <v>547</v>
       </c>
       <c r="Q128" s="7" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="R128" s="7" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="S128" s="16" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="T128" s="7" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="U128" s="7" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="V128" s="7" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="W128" s="7" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="X128" s="7" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Y128" s="7" t="s">
         <v>511</v>
@@ -14932,7 +14929,7 @@
         <v>552</v>
       </c>
       <c r="R129" s="7" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="S129" s="7" t="s">
         <v>553</v>
@@ -14982,10 +14979,10 @@
         <v>547</v>
       </c>
       <c r="Q130" s="7" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="R130" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S130" s="7" t="s">
         <v>540</v>
@@ -14994,13 +14991,13 @@
         <v>561</v>
       </c>
       <c r="U130" s="7" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="V130" s="7" t="s">
         <v>562</v>
       </c>
       <c r="W130" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X130" s="7" t="s">
         <v>563</v>
@@ -15080,28 +15077,28 @@
         <v>566</v>
       </c>
       <c r="Q131" s="13" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="R131" s="13" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="S131" s="13" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="T131" s="13" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="U131" s="13" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="V131" s="13" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="W131" s="13" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="X131" s="13" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="AG131" s="7" t="s">
         <v>92</v>
@@ -15154,28 +15151,28 @@
         <v>566</v>
       </c>
       <c r="Q132" s="7" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="R132" s="7" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="S132" s="16" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="T132" s="7" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="U132" s="7" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="V132" s="7" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="W132" s="7" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="X132" s="7" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Y132" s="7" t="s">
         <v>511</v>
@@ -15225,7 +15222,7 @@
         <v>571</v>
       </c>
       <c r="R133" s="7" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="S133" s="7" t="s">
         <v>572</v>
@@ -15275,10 +15272,10 @@
         <v>566</v>
       </c>
       <c r="Q134" s="7" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S134" s="7" t="s">
         <v>540</v>
@@ -15293,7 +15290,7 @@
         <v>582</v>
       </c>
       <c r="W134" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X134" s="7" t="s">
         <v>583</v>
@@ -15373,28 +15370,28 @@
         <v>586</v>
       </c>
       <c r="Q135" s="13" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="R135" s="13" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="S135" s="13" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="T135" s="13" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="U135" s="13" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="V135" s="13" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="W135" s="13" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="X135" s="13" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="AG135" s="7" t="s">
         <v>92</v>
@@ -15447,28 +15444,28 @@
         <v>586</v>
       </c>
       <c r="Q136" s="7" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="R136" s="7" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="S136" s="16" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="T136" s="7" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="U136" s="7" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="V136" s="7" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="W136" s="7" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="X136" s="7" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="Y136" s="7" t="s">
         <v>511</v>
@@ -15518,7 +15515,7 @@
         <v>591</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="S137" s="7" t="s">
         <v>592</v>
@@ -15568,10 +15565,10 @@
         <v>586</v>
       </c>
       <c r="Q138" s="7" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="R138" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S138" s="7" t="s">
         <v>540</v>
@@ -15586,7 +15583,7 @@
         <v>602</v>
       </c>
       <c r="W138" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X138" s="7" t="s">
         <v>603</v>
@@ -15666,28 +15663,28 @@
         <v>606</v>
       </c>
       <c r="Q139" s="13" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="R139" s="13" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="S139" s="13" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="T139" s="13" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="U139" s="13" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="V139" s="13" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="W139" s="13" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="X139" s="13" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="AG139" s="7" t="s">
         <v>92</v>
@@ -15740,28 +15737,28 @@
         <v>606</v>
       </c>
       <c r="Q140" s="7" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="S140" s="16" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="T140" s="7" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="U140" s="7" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="V140" s="7" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="W140" s="7" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="X140" s="7" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="Y140" s="7" t="s">
         <v>511</v>
@@ -15808,10 +15805,10 @@
         <v>606</v>
       </c>
       <c r="Q141" s="7" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="S141" s="7" t="s">
         <v>611</v>
@@ -15861,10 +15858,10 @@
         <v>606</v>
       </c>
       <c r="Q142" s="7" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="R142" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S142" s="7" t="s">
         <v>540</v>
@@ -15879,7 +15876,7 @@
         <v>621</v>
       </c>
       <c r="W142" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X142" s="7" t="s">
         <v>622</v>
@@ -15959,28 +15956,28 @@
         <v>625</v>
       </c>
       <c r="Q143" s="13" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="R143" s="13" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="S143" s="13" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="T143" s="13" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="U143" s="13" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="V143" s="13" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="W143" s="13" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="X143" s="13" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="AG143" s="7" t="s">
         <v>92</v>
@@ -16033,28 +16030,28 @@
         <v>625</v>
       </c>
       <c r="Q144" s="7" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="R144" s="7" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="S144" s="16" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="T144" s="7" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="U144" s="7" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="V144" s="7" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="W144" s="7" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="X144" s="7" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="Y144" s="7" t="s">
         <v>511</v>
@@ -16104,7 +16101,7 @@
         <v>630</v>
       </c>
       <c r="R145" s="7" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="S145" s="7" t="s">
         <v>631</v>
@@ -16154,10 +16151,10 @@
         <v>625</v>
       </c>
       <c r="Q146" s="7" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="R146" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S146" s="7" t="s">
         <v>540</v>
@@ -16172,7 +16169,7 @@
         <v>641</v>
       </c>
       <c r="W146" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X146" s="7" t="s">
         <v>642</v>
@@ -16252,28 +16249,28 @@
         <v>645</v>
       </c>
       <c r="Q147" s="13" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="R147" s="13" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="S147" s="13" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="T147" s="13" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="U147" s="13" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="V147" s="13" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="W147" s="13" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="X147" s="13" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="AG147" s="7" t="s">
         <v>92</v>
@@ -16326,28 +16323,28 @@
         <v>645</v>
       </c>
       <c r="Q148" s="7" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="R148" s="7" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="S148" s="16" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="T148" s="7" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="U148" s="7" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="V148" s="7" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="W148" s="7" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="X148" s="7" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="Y148" s="7" t="s">
         <v>511</v>
@@ -16397,7 +16394,7 @@
         <v>650</v>
       </c>
       <c r="R149" s="7" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="S149" s="7" t="s">
         <v>651</v>
@@ -16447,10 +16444,10 @@
         <v>645</v>
       </c>
       <c r="Q150" s="7" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="R150" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S150" s="7" t="s">
         <v>540</v>
@@ -16465,7 +16462,7 @@
         <v>661</v>
       </c>
       <c r="W150" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X150" s="7" t="s">
         <v>662</v>
@@ -16545,28 +16542,28 @@
         <v>665</v>
       </c>
       <c r="Q151" s="13" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="R151" s="13" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="S151" s="13" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="T151" s="13" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="U151" s="13" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="V151" s="13" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="W151" s="13" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="X151" s="13" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="AG151" s="7" t="s">
         <v>92</v>
@@ -16619,28 +16616,28 @@
         <v>665</v>
       </c>
       <c r="Q152" s="7" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="R152" s="7" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="S152" s="16" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="T152" s="7" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="U152" s="7" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="V152" s="7" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="W152" s="7" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="X152" s="7" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="Y152" s="7" t="s">
         <v>511</v>
@@ -16690,7 +16687,7 @@
         <v>670</v>
       </c>
       <c r="R153" s="7" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="S153" s="7" t="s">
         <v>671</v>
@@ -16740,10 +16737,10 @@
         <v>665</v>
       </c>
       <c r="Q154" s="7" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="R154" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S154" s="7" t="s">
         <v>540</v>
@@ -16758,7 +16755,7 @@
         <v>681</v>
       </c>
       <c r="W154" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X154" s="7" t="s">
         <v>682</v>
@@ -16838,28 +16835,28 @@
         <v>685</v>
       </c>
       <c r="Q155" s="13" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="R155" s="13" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="S155" s="13" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="T155" s="13" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="U155" s="13" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="V155" s="13" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="W155" s="13" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="X155" s="13" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="AG155" s="7" t="s">
         <v>92</v>
@@ -16912,28 +16909,28 @@
         <v>685</v>
       </c>
       <c r="Q156" s="7" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="R156" s="7" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="S156" s="16" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="T156" s="7" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="U156" s="7" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="V156" s="7" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="W156" s="7" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="X156" s="7" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="Y156" s="7" t="s">
         <v>511</v>
@@ -16983,7 +16980,7 @@
         <v>690</v>
       </c>
       <c r="R157" s="7" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="S157" s="7" t="s">
         <v>691</v>
@@ -17033,10 +17030,10 @@
         <v>685</v>
       </c>
       <c r="Q158" s="7" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="R158" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S158" s="7" t="s">
         <v>540</v>
@@ -17051,7 +17048,7 @@
         <v>701</v>
       </c>
       <c r="W158" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X158" s="7" t="s">
         <v>702</v>
@@ -17131,28 +17128,28 @@
         <v>705</v>
       </c>
       <c r="Q159" s="13" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="R159" s="13" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="S159" s="13" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="T159" s="13" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="U159" s="13" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="V159" s="13" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="W159" s="13" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X159" s="13" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="AG159" s="7" t="s">
         <v>92</v>
@@ -17205,28 +17202,28 @@
         <v>705</v>
       </c>
       <c r="Q160" s="7" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="R160" s="7" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="S160" s="16" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="T160" s="7" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="U160" s="7" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="V160" s="7" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="W160" s="7" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="X160" s="7" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="Y160" s="7" t="s">
         <v>511</v>
@@ -17276,7 +17273,7 @@
         <v>710</v>
       </c>
       <c r="R161" s="7" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="S161" s="7" t="s">
         <v>711</v>
@@ -17326,10 +17323,10 @@
         <v>705</v>
       </c>
       <c r="Q162" s="7" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="R162" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S162" s="7" t="s">
         <v>540</v>
@@ -17344,7 +17341,7 @@
         <v>721</v>
       </c>
       <c r="W162" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X162" s="7" t="s">
         <v>722</v>
@@ -17424,28 +17421,28 @@
         <v>725</v>
       </c>
       <c r="Q163" s="13" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="R163" s="13" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="S163" s="13" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="T163" s="13" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="U163" s="13" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="V163" s="13" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W163" s="13" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="X163" s="13" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="AG163" s="7" t="s">
         <v>92</v>
@@ -17498,28 +17495,28 @@
         <v>725</v>
       </c>
       <c r="Q164" s="7" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="R164" s="7" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="S164" s="16" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="T164" s="7" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="U164" s="7" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="V164" s="7" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="W164" s="7" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="X164" s="7" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="Y164" s="7" t="s">
         <v>511</v>
@@ -17569,7 +17566,7 @@
         <v>730</v>
       </c>
       <c r="R165" s="7" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="S165" s="7" t="s">
         <v>731</v>
@@ -17619,10 +17616,10 @@
         <v>725</v>
       </c>
       <c r="Q166" s="7" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="R166" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S166" s="7" t="s">
         <v>540</v>
@@ -17637,7 +17634,7 @@
         <v>741</v>
       </c>
       <c r="W166" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X166" s="7" t="s">
         <v>742</v>
@@ -17717,28 +17714,28 @@
         <v>745</v>
       </c>
       <c r="Q167" s="13" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="R167" s="13" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="S167" s="13" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="T167" s="13" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="U167" s="13" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="V167" s="13" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="W167" s="13" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="X167" s="13" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="AG167" s="7" t="s">
         <v>92</v>
@@ -17791,28 +17788,28 @@
         <v>745</v>
       </c>
       <c r="Q168" s="7" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="R168" s="7" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="S168" s="16" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="T168" s="7" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="U168" s="7" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="V168" s="7" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="W168" s="7" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="X168" s="7" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="Y168" s="7" t="s">
         <v>511</v>
@@ -17862,7 +17859,7 @@
         <v>750</v>
       </c>
       <c r="R169" s="7" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="S169" s="7" t="s">
         <v>751</v>
@@ -17912,10 +17909,10 @@
         <v>745</v>
       </c>
       <c r="Q170" s="7" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="R170" s="7" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="S170" s="7" t="s">
         <v>540</v>
@@ -17930,7 +17927,7 @@
         <v>761</v>
       </c>
       <c r="W170" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X170" s="7" t="s">
         <v>762</v>
@@ -18010,28 +18007,28 @@
         <v>765</v>
       </c>
       <c r="Q171" s="13" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="R171" s="13" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="S171" s="13" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="T171" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="U171" s="13" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="V171" s="13" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="W171" s="13" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="X171" s="13" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="AG171" s="7" t="s">
         <v>92</v>
@@ -18084,28 +18081,28 @@
         <v>765</v>
       </c>
       <c r="Q172" s="7" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="R172" s="7" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="S172" s="16" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="T172" s="7" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="U172" s="7" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="V172" s="7" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="W172" s="7" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="X172" s="7" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="Y172" s="7" t="s">
         <v>511</v>
@@ -18155,7 +18152,7 @@
         <v>770</v>
       </c>
       <c r="R173" s="7" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="S173" s="7" t="s">
         <v>771</v>
@@ -18205,10 +18202,10 @@
         <v>765</v>
       </c>
       <c r="Q174" s="7" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="R174" s="7" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="S174" s="7" t="s">
         <v>779</v>
@@ -18223,7 +18220,7 @@
         <v>782</v>
       </c>
       <c r="W174" s="7" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="X174" s="7" t="s">
         <v>783</v>
@@ -18335,7 +18332,7 @@
         <v>793</v>
       </c>
       <c r="V176" s="7" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="W176" s="7" t="s">
         <v>794</v>
@@ -18695,28 +18692,28 @@
         <v>827</v>
       </c>
       <c r="Q185" s="7" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="R185" s="7" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="T185" s="7" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="U185" s="7" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="V185" s="7" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="W185" s="7" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="X185" s="7" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Y185" s="7" t="s">
         <v>826</v>
@@ -18763,28 +18760,28 @@
         <v>827</v>
       </c>
       <c r="Q186" s="7" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="R186" s="7" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="T186" s="7" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="U186" s="7" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="V186" s="7" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="W186" s="7" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="X186" s="7" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="AO186" s="25"/>
       <c r="AP186" s="25"/>
@@ -18819,16 +18816,16 @@
         <v>873</v>
       </c>
       <c r="R187" s="7" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="S187" s="7" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="T187" s="7" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="U187" s="7" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="V187" s="7" t="s">
         <v>873</v>
@@ -18837,7 +18834,7 @@
         <v>873</v>
       </c>
       <c r="X187" s="7" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="Y187" s="7" t="s">
         <v>831</v>
@@ -19155,28 +19152,28 @@
         <v>869</v>
       </c>
       <c r="Q193" s="13" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="R193" s="13" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="S193" s="13" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="T193" s="13" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="U193" s="13" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="V193" s="13" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="W193" s="13" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="X193" s="13" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="Y193" s="7" t="s">
         <v>826</v>
@@ -19223,28 +19220,28 @@
         <v>869</v>
       </c>
       <c r="Q194" s="13" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="R194" s="13" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="S194" s="13" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="T194" s="13" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="U194" s="13" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="V194" s="13" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="W194" s="13" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="X194" s="13" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="AO194" s="25"/>
       <c r="AP194" s="25"/>
@@ -19276,16 +19273,16 @@
         <v>873</v>
       </c>
       <c r="R195" s="13" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="S195" s="13" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="T195" s="13" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="U195" s="13" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="V195" s="13" t="s">
         <v>873</v>
@@ -19294,7 +19291,7 @@
         <v>873</v>
       </c>
       <c r="X195" s="13" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="Y195" s="7" t="s">
         <v>831</v>
@@ -22543,10 +22540,10 @@
   <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -24259,28 +24256,28 @@
         <v>1293</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -24294,28 +24291,28 @@
         <v>1295</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -25242,7 +25239,7 @@
         <v>1502</v>
       </c>
       <c r="F78" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="G78" t="s">
         <v>1502</v>
@@ -25251,7 +25248,7 @@
         <v>1502</v>
       </c>
       <c r="I78" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="J78" t="s">
         <v>1502</v>
@@ -25321,7 +25318,7 @@
         <v>1518</v>
       </c>
       <c r="I80" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="J80" t="s">
         <v>1519</v>
@@ -25414,28 +25411,28 @@
         <v>1543</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -28704,13 +28701,13 @@
         <v>1872</v>
       </c>
       <c r="B2" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="C2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D2" t="s">
         <v>2351</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2350</v>
       </c>
       <c r="E2" t="str">
         <f>$D2</f>
@@ -28750,13 +28747,13 @@
         <v>1872</v>
       </c>
       <c r="B3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C3" t="s">
         <v>2352</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2351</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2350</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:L21" si="1">$D3</f>
@@ -28796,13 +28793,13 @@
         <v>1872</v>
       </c>
       <c r="B4" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D4" t="s">
         <v>2351</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2350</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -28842,13 +28839,13 @@
         <v>1872</v>
       </c>
       <c r="B5" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="C5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D5" t="s">
         <v>2351</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2350</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -28888,13 +28885,13 @@
         <v>1872</v>
       </c>
       <c r="B6" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C6" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D6" t="s">
         <v>2351</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2350</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -28934,13 +28931,13 @@
         <v>1873</v>
       </c>
       <c r="B7" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="C7" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="D7" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -28980,13 +28977,13 @@
         <v>1873</v>
       </c>
       <c r="B8" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D8" t="s">
         <v>2358</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2352</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2357</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -29026,13 +29023,13 @@
         <v>1873</v>
       </c>
       <c r="B9" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="C9" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="D9" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -29072,13 +29069,13 @@
         <v>1873</v>
       </c>
       <c r="B10" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="C10" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="D10" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -29118,13 +29115,13 @@
         <v>1873</v>
       </c>
       <c r="B11" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="C11" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="D11" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -29164,13 +29161,13 @@
         <v>1874</v>
       </c>
       <c r="B12" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C12" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="D12" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -29210,13 +29207,13 @@
         <v>1874</v>
       </c>
       <c r="B13" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D13" t="s">
         <v>2364</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2358</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2363</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
@@ -29256,13 +29253,13 @@
         <v>1874</v>
       </c>
       <c r="B14" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="C14" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="D14" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -29302,13 +29299,13 @@
         <v>1874</v>
       </c>
       <c r="B15" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="C15" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="D15" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -29348,13 +29345,13 @@
         <v>1874</v>
       </c>
       <c r="B16" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C16" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="D16" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
@@ -29391,232 +29388,232 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>2368</v>
+        <v>1875</v>
       </c>
       <c r="B17" t="s">
         <v>2369</v>
       </c>
       <c r="C17" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="D17" t="s">
-        <v>2370</v>
+        <v>85</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>2368</v>
+        <v>1875</v>
       </c>
       <c r="B18" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C18" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="D18" t="s">
-        <v>2370</v>
+        <v>85</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>2368</v>
+        <v>1875</v>
       </c>
       <c r="B19" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C19" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="D19" t="s">
-        <v>2370</v>
+        <v>85</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>2368</v>
+        <v>1875</v>
       </c>
       <c r="B20" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C20" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="D20" t="s">
-        <v>2370</v>
+        <v>85</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C21" t="s">
         <v>2368</v>
       </c>
-      <c r="B21" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2367</v>
-      </c>
       <c r="D21" t="s">
-        <v>2370</v>
+        <v>85</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
   </sheetData>
@@ -29645,42 +29642,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C1" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D1" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="E1" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="F1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="B2" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="C2" t="s">
         <v>1854</v>
       </c>
       <c r="D2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
   </sheetData>
@@ -29716,22 +29713,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -29739,19 +29736,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -29762,16 +29759,16 @@
         <v>42824</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -29779,16 +29776,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -29799,16 +29796,16 @@
         <v>42829</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -29819,16 +29816,16 @@
         <v>42829</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -29839,16 +29836,16 @@
         <v>42829</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -29859,16 +29856,16 @@
         <v>42829</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -29879,16 +29876,16 @@
         <v>42829</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -29899,16 +29896,16 @@
         <v>42829</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -29919,16 +29916,16 @@
         <v>42829</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -29939,16 +29936,16 @@
         <v>42829</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -29959,16 +29956,16 @@
         <v>42829</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -29979,16 +29976,16 @@
         <v>42829</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -29999,16 +29996,16 @@
         <v>42829</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -30019,16 +30016,16 @@
         <v>42829</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -30039,16 +30036,16 @@
         <v>42829</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -30059,16 +30056,16 @@
         <v>42859</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -30079,16 +30076,16 @@
         <v>42890</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -30099,16 +30096,16 @@
         <v>42890</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -30119,16 +30116,16 @@
         <v>42920</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -30139,16 +30136,16 @@
         <v>42920</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -30159,16 +30156,16 @@
         <v>42920</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -30179,16 +30176,16 @@
         <v>42951</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -30199,16 +30196,16 @@
         <v>43043</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
   </sheetData>
